--- a/working documents/All stg.xlsx
+++ b/working documents/All stg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93d3fefec06a4876/Documents/Jobs/Repositories/newwork_case/working documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{1A04FB31-39D0-4FB2-AB00-46819FBAD88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5E1355C-A0AF-4184-A0B4-364E6ADDADDD}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{1A04FB31-39D0-4FB2-AB00-46819FBAD88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D691D85A-BC29-4B2E-BE00-09AE2C88B66C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="771" firstSheet="4" activeTab="12" xr2:uid="{6A9B4669-5351-4322-A394-DDD42C009FE6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="771" firstSheet="1" activeTab="8" xr2:uid="{6A9B4669-5351-4322-A394-DDD42C009FE6}"/>
   </bookViews>
   <sheets>
     <sheet name="user_role" sheetId="15" r:id="rId1"/>
@@ -3890,11 +3890,6 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>opportunity
-user
-lead?</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -4202,6 +4197,10 @@
   </si>
   <si>
     <t>link between case and solution is missing</t>
+  </si>
+  <si>
+    <t>user
+lead?</t>
   </si>
 </sst>
 </file>
@@ -4223,12 +4222,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4243,7 +4248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4252,6 +4257,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4297,15 +4308,27 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -4480,6 +4503,141 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
@@ -4796,153 +4954,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -6136,15 +6147,15 @@
     <sortCondition ref="B1:B27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{128B99A0-D67B-494B-BB6A-35B4B6DFFC89}" uniqueName="1" name="case_history_id" queryTableFieldId="1" dataDxfId="157"/>
-    <tableColumn id="2" xr3:uid="{1F730127-0452-45DC-9691-47D3DA3E3AC9}" uniqueName="2" name="caseid" queryTableFieldId="2" dataDxfId="156"/>
-    <tableColumn id="3" xr3:uid="{3B8C53CA-FD02-4EE1-9919-646CFE230FDC}" uniqueName="3" name="ownerid" queryTableFieldId="3" dataDxfId="155"/>
-    <tableColumn id="4" xr3:uid="{251EBC42-BAF2-4748-BB2A-AB80AB87C97E}" uniqueName="4" name="status" queryTableFieldId="4" dataDxfId="154"/>
-    <tableColumn id="5" xr3:uid="{98F7E88F-9936-4E22-9117-3FDF508E4D9F}" uniqueName="5" name="previousupdate" queryTableFieldId="5" dataDxfId="153"/>
-    <tableColumn id="6" xr3:uid="{18EB3403-8ADD-462D-808D-D406C531C9A1}" uniqueName="6" name="lastmodifieddate" queryTableFieldId="6" dataDxfId="152"/>
-    <tableColumn id="7" xr3:uid="{F35D73FB-AB53-4713-8FA7-17822710DD32}" uniqueName="7" name="lastmodifiedbyid" queryTableFieldId="7" dataDxfId="151"/>
+    <tableColumn id="1" xr3:uid="{128B99A0-D67B-494B-BB6A-35B4B6DFFC89}" uniqueName="1" name="case_history_id" queryTableFieldId="1" dataDxfId="206"/>
+    <tableColumn id="2" xr3:uid="{1F730127-0452-45DC-9691-47D3DA3E3AC9}" uniqueName="2" name="caseid" queryTableFieldId="2" dataDxfId="205"/>
+    <tableColumn id="3" xr3:uid="{3B8C53CA-FD02-4EE1-9919-646CFE230FDC}" uniqueName="3" name="ownerid" queryTableFieldId="3" dataDxfId="204"/>
+    <tableColumn id="4" xr3:uid="{251EBC42-BAF2-4748-BB2A-AB80AB87C97E}" uniqueName="4" name="status" queryTableFieldId="4" dataDxfId="203"/>
+    <tableColumn id="5" xr3:uid="{98F7E88F-9936-4E22-9117-3FDF508E4D9F}" uniqueName="5" name="previousupdate" queryTableFieldId="5" dataDxfId="202"/>
+    <tableColumn id="6" xr3:uid="{18EB3403-8ADD-462D-808D-D406C531C9A1}" uniqueName="6" name="lastmodifieddate" queryTableFieldId="6" dataDxfId="201"/>
+    <tableColumn id="7" xr3:uid="{F35D73FB-AB53-4713-8FA7-17822710DD32}" uniqueName="7" name="lastmodifiedbyid" queryTableFieldId="7" dataDxfId="200"/>
     <tableColumn id="8" xr3:uid="{2BEFCC1A-D785-4D5C-BBE6-80703523F822}" uniqueName="8" name="isdeleted" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{8861B568-FEDF-4EA1-8D5E-7F5718E8D4B1}" uniqueName="9" name="systemmodstamp" queryTableFieldId="9" dataDxfId="150"/>
+    <tableColumn id="9" xr3:uid="{8861B568-FEDF-4EA1-8D5E-7F5718E8D4B1}" uniqueName="9" name="systemmodstamp" queryTableFieldId="9" dataDxfId="199"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6157,49 +6168,49 @@
     <sortCondition ref="U1:U27"/>
   </sortState>
   <tableColumns count="43">
-    <tableColumn id="1" xr3:uid="{0B45A5FB-09AC-4F50-BC6E-D63216E8D274}" uniqueName="1" name="case_id" queryTableFieldId="1" dataDxfId="149"/>
+    <tableColumn id="1" xr3:uid="{0B45A5FB-09AC-4F50-BC6E-D63216E8D274}" uniqueName="1" name="case_id" queryTableFieldId="1" dataDxfId="198"/>
     <tableColumn id="2" xr3:uid="{935E5C14-547D-4525-8286-72314E0C7238}" uniqueName="2" name="isdeleted" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{2D0864EC-7BDA-469E-BB3A-A9808D6FDF25}" uniqueName="3" name="masterrecordid" queryTableFieldId="3" dataDxfId="148"/>
+    <tableColumn id="3" xr3:uid="{2D0864EC-7BDA-469E-BB3A-A9808D6FDF25}" uniqueName="3" name="masterrecordid" queryTableFieldId="3" dataDxfId="197"/>
     <tableColumn id="4" xr3:uid="{1D57F4AA-0460-4B0E-8F74-DD8AD763ACC7}" uniqueName="4" name="casenumber" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{951C15BE-517B-45E0-9FB1-1900AD24094F}" uniqueName="5" name="contactid" queryTableFieldId="5" dataDxfId="147"/>
-    <tableColumn id="6" xr3:uid="{D085D0E5-F236-4FBD-81BC-DAB929835190}" uniqueName="6" name="accountid" queryTableFieldId="6" dataDxfId="146"/>
-    <tableColumn id="7" xr3:uid="{932FD82A-0EF4-4B49-83F8-E6EAA6C987FA}" uniqueName="7" name="assetid" queryTableFieldId="7" dataDxfId="145"/>
-    <tableColumn id="8" xr3:uid="{8447BF25-080C-49EB-BF15-3F780599D368}" uniqueName="8" name="productid" queryTableFieldId="8" dataDxfId="144"/>
-    <tableColumn id="9" xr3:uid="{90B68F30-5D40-4075-A4F4-C739CB633689}" uniqueName="9" name="entitlementid" queryTableFieldId="9" dataDxfId="143"/>
-    <tableColumn id="10" xr3:uid="{3C8B2067-4074-4762-97D0-012620D95C56}" uniqueName="10" name="sourceid" queryTableFieldId="10" dataDxfId="142"/>
-    <tableColumn id="11" xr3:uid="{01B11E7A-9CF2-4D9D-901B-6823E0A0F28A}" uniqueName="11" name="businesshoursid" queryTableFieldId="11" dataDxfId="141"/>
-    <tableColumn id="12" xr3:uid="{5E7ECC2A-C64A-4450-9345-F4BEA0044CDE}" uniqueName="12" name="parentid" queryTableFieldId="12" dataDxfId="140"/>
-    <tableColumn id="13" xr3:uid="{448C0ED9-A327-4722-8CF2-D344308C0E23}" uniqueName="13" name="suppliedname" queryTableFieldId="13" dataDxfId="139"/>
-    <tableColumn id="14" xr3:uid="{D2CF29D5-8D62-433A-9DFF-C188FFF9C112}" uniqueName="14" name="suppliedemail" queryTableFieldId="14" dataDxfId="138"/>
-    <tableColumn id="15" xr3:uid="{10E7D6AB-5AD0-401D-9D4A-0F1082031B17}" uniqueName="15" name="suppliedphone" queryTableFieldId="15" dataDxfId="137"/>
-    <tableColumn id="16" xr3:uid="{8CAC240D-2E56-4D4C-8BFF-4C810D0BA77D}" uniqueName="16" name="suppliedcompany" queryTableFieldId="16" dataDxfId="136"/>
-    <tableColumn id="17" xr3:uid="{37E719C5-F266-4E9E-ADF6-B5CAA6E8340B}" uniqueName="17" name="type" queryTableFieldId="17" dataDxfId="135"/>
-    <tableColumn id="18" xr3:uid="{C73A5923-D67B-4A83-AA3F-AA21C5309B37}" uniqueName="18" name="status" queryTableFieldId="18" dataDxfId="134"/>
-    <tableColumn id="19" xr3:uid="{2B16D0B3-33F9-4E7C-A0EE-ED6F927C4421}" uniqueName="19" name="reason" queryTableFieldId="19" dataDxfId="133"/>
-    <tableColumn id="20" xr3:uid="{506B72E4-F19B-4496-8390-BA212CB8A253}" uniqueName="20" name="origin" queryTableFieldId="20" dataDxfId="132"/>
-    <tableColumn id="21" xr3:uid="{0F7C3052-CD3A-4FE9-85DA-AC4979CF4EF3}" uniqueName="21" name="subject" queryTableFieldId="21" dataDxfId="131"/>
-    <tableColumn id="22" xr3:uid="{EB14ABC3-76C0-4B0E-ADF7-6DABC079349A}" uniqueName="22" name="priority" queryTableFieldId="22" dataDxfId="130"/>
-    <tableColumn id="23" xr3:uid="{F2CA1D30-E529-4C6A-BE03-EFBE612DF78F}" uniqueName="23" name="description" queryTableFieldId="23" dataDxfId="129"/>
+    <tableColumn id="5" xr3:uid="{951C15BE-517B-45E0-9FB1-1900AD24094F}" uniqueName="5" name="contactid" queryTableFieldId="5" dataDxfId="196"/>
+    <tableColumn id="6" xr3:uid="{D085D0E5-F236-4FBD-81BC-DAB929835190}" uniqueName="6" name="accountid" queryTableFieldId="6" dataDxfId="195"/>
+    <tableColumn id="7" xr3:uid="{932FD82A-0EF4-4B49-83F8-E6EAA6C987FA}" uniqueName="7" name="assetid" queryTableFieldId="7" dataDxfId="194"/>
+    <tableColumn id="8" xr3:uid="{8447BF25-080C-49EB-BF15-3F780599D368}" uniqueName="8" name="productid" queryTableFieldId="8" dataDxfId="193"/>
+    <tableColumn id="9" xr3:uid="{90B68F30-5D40-4075-A4F4-C739CB633689}" uniqueName="9" name="entitlementid" queryTableFieldId="9" dataDxfId="192"/>
+    <tableColumn id="10" xr3:uid="{3C8B2067-4074-4762-97D0-012620D95C56}" uniqueName="10" name="sourceid" queryTableFieldId="10" dataDxfId="191"/>
+    <tableColumn id="11" xr3:uid="{01B11E7A-9CF2-4D9D-901B-6823E0A0F28A}" uniqueName="11" name="businesshoursid" queryTableFieldId="11" dataDxfId="190"/>
+    <tableColumn id="12" xr3:uid="{5E7ECC2A-C64A-4450-9345-F4BEA0044CDE}" uniqueName="12" name="parentid" queryTableFieldId="12" dataDxfId="189"/>
+    <tableColumn id="13" xr3:uid="{448C0ED9-A327-4722-8CF2-D344308C0E23}" uniqueName="13" name="suppliedname" queryTableFieldId="13" dataDxfId="188"/>
+    <tableColumn id="14" xr3:uid="{D2CF29D5-8D62-433A-9DFF-C188FFF9C112}" uniqueName="14" name="suppliedemail" queryTableFieldId="14" dataDxfId="187"/>
+    <tableColumn id="15" xr3:uid="{10E7D6AB-5AD0-401D-9D4A-0F1082031B17}" uniqueName="15" name="suppliedphone" queryTableFieldId="15" dataDxfId="186"/>
+    <tableColumn id="16" xr3:uid="{8CAC240D-2E56-4D4C-8BFF-4C810D0BA77D}" uniqueName="16" name="suppliedcompany" queryTableFieldId="16" dataDxfId="185"/>
+    <tableColumn id="17" xr3:uid="{37E719C5-F266-4E9E-ADF6-B5CAA6E8340B}" uniqueName="17" name="type" queryTableFieldId="17" dataDxfId="184"/>
+    <tableColumn id="18" xr3:uid="{C73A5923-D67B-4A83-AA3F-AA21C5309B37}" uniqueName="18" name="status" queryTableFieldId="18" dataDxfId="183"/>
+    <tableColumn id="19" xr3:uid="{2B16D0B3-33F9-4E7C-A0EE-ED6F927C4421}" uniqueName="19" name="reason" queryTableFieldId="19" dataDxfId="182"/>
+    <tableColumn id="20" xr3:uid="{506B72E4-F19B-4496-8390-BA212CB8A253}" uniqueName="20" name="origin" queryTableFieldId="20" dataDxfId="181"/>
+    <tableColumn id="21" xr3:uid="{0F7C3052-CD3A-4FE9-85DA-AC4979CF4EF3}" uniqueName="21" name="subject" queryTableFieldId="21" dataDxfId="180"/>
+    <tableColumn id="22" xr3:uid="{EB14ABC3-76C0-4B0E-ADF7-6DABC079349A}" uniqueName="22" name="priority" queryTableFieldId="22" dataDxfId="179"/>
+    <tableColumn id="23" xr3:uid="{F2CA1D30-E529-4C6A-BE03-EFBE612DF78F}" uniqueName="23" name="description" queryTableFieldId="23" dataDxfId="178"/>
     <tableColumn id="24" xr3:uid="{03A6053B-CC0D-4F57-A5C1-864F8798B2F5}" uniqueName="24" name="isclosed" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{1A02337D-23A7-43ED-AE4C-DE9CBAB6B5B4}" uniqueName="25" name="closeddate" queryTableFieldId="25" dataDxfId="128"/>
+    <tableColumn id="25" xr3:uid="{1A02337D-23A7-43ED-AE4C-DE9CBAB6B5B4}" uniqueName="25" name="closeddate" queryTableFieldId="25" dataDxfId="177"/>
     <tableColumn id="26" xr3:uid="{3D7F2372-6FA2-47DA-B8A2-206DEF62D46E}" uniqueName="26" name="isescalated" queryTableFieldId="26"/>
-    <tableColumn id="27" xr3:uid="{E3EB282E-023D-4DB1-B008-674C7689CD35}" uniqueName="27" name="ownerid" queryTableFieldId="27" dataDxfId="127"/>
+    <tableColumn id="27" xr3:uid="{E3EB282E-023D-4DB1-B008-674C7689CD35}" uniqueName="27" name="ownerid" queryTableFieldId="27" dataDxfId="176"/>
     <tableColumn id="28" xr3:uid="{A67A7FE0-F8F0-4034-B8B1-BA3C17FE2B93}" uniqueName="28" name="isclosedoncreate" queryTableFieldId="28"/>
-    <tableColumn id="29" xr3:uid="{612EA3A4-C8D5-49EB-A3A7-22EBBEC5703F}" uniqueName="29" name="slastartdate" queryTableFieldId="29" dataDxfId="126"/>
-    <tableColumn id="30" xr3:uid="{B9F3641C-BE6C-4507-928E-F0167EF12FC9}" uniqueName="30" name="slaexitdate" queryTableFieldId="30" dataDxfId="125"/>
+    <tableColumn id="29" xr3:uid="{612EA3A4-C8D5-49EB-A3A7-22EBBEC5703F}" uniqueName="29" name="slastartdate" queryTableFieldId="29" dataDxfId="175"/>
+    <tableColumn id="30" xr3:uid="{B9F3641C-BE6C-4507-928E-F0167EF12FC9}" uniqueName="30" name="slaexitdate" queryTableFieldId="30" dataDxfId="174"/>
     <tableColumn id="31" xr3:uid="{FCC3613B-A5E6-4F3A-B947-F2A375AAC2CB}" uniqueName="31" name="isstopped" queryTableFieldId="31"/>
-    <tableColumn id="32" xr3:uid="{77B0E3EB-EF7A-401D-9151-B58DD89F6EEF}" uniqueName="32" name="stopstartdate" queryTableFieldId="32" dataDxfId="124"/>
-    <tableColumn id="33" xr3:uid="{F9856E2A-1B38-49BD-9AAF-8BCFBB9CD6C2}" uniqueName="33" name="createddate" queryTableFieldId="33" dataDxfId="123"/>
-    <tableColumn id="34" xr3:uid="{3C6AF08A-D735-459E-A9AE-7F5F1E4D0222}" uniqueName="34" name="createdbyid" queryTableFieldId="34" dataDxfId="122"/>
-    <tableColumn id="35" xr3:uid="{3F565DC7-F61E-433B-BE8D-DF715115E8D5}" uniqueName="35" name="lastmodifieddate" queryTableFieldId="35" dataDxfId="121"/>
-    <tableColumn id="36" xr3:uid="{41B38A45-BFF5-44DE-9367-4A32C7F0A7D8}" uniqueName="36" name="lastmodifiedbyid" queryTableFieldId="36" dataDxfId="120"/>
-    <tableColumn id="37" xr3:uid="{BACA2EFF-2879-4273-AE4D-C9290EE3C783}" uniqueName="37" name="systemmodstamp" queryTableFieldId="37" dataDxfId="119"/>
-    <tableColumn id="38" xr3:uid="{1774B33C-2378-4B23-8129-EB9D08AB7A4C}" uniqueName="38" name="servicecontractid" queryTableFieldId="38" dataDxfId="118"/>
-    <tableColumn id="39" xr3:uid="{4A3B649F-89FF-4022-8208-EF19128D888F}" uniqueName="39" name="eventsprocesseddate" queryTableFieldId="39" dataDxfId="117"/>
+    <tableColumn id="32" xr3:uid="{77B0E3EB-EF7A-401D-9151-B58DD89F6EEF}" uniqueName="32" name="stopstartdate" queryTableFieldId="32" dataDxfId="173"/>
+    <tableColumn id="33" xr3:uid="{F9856E2A-1B38-49BD-9AAF-8BCFBB9CD6C2}" uniqueName="33" name="createddate" queryTableFieldId="33" dataDxfId="172"/>
+    <tableColumn id="34" xr3:uid="{3C6AF08A-D735-459E-A9AE-7F5F1E4D0222}" uniqueName="34" name="createdbyid" queryTableFieldId="34" dataDxfId="171"/>
+    <tableColumn id="35" xr3:uid="{3F565DC7-F61E-433B-BE8D-DF715115E8D5}" uniqueName="35" name="lastmodifieddate" queryTableFieldId="35" dataDxfId="170"/>
+    <tableColumn id="36" xr3:uid="{41B38A45-BFF5-44DE-9367-4A32C7F0A7D8}" uniqueName="36" name="lastmodifiedbyid" queryTableFieldId="36" dataDxfId="169"/>
+    <tableColumn id="37" xr3:uid="{BACA2EFF-2879-4273-AE4D-C9290EE3C783}" uniqueName="37" name="systemmodstamp" queryTableFieldId="37" dataDxfId="168"/>
+    <tableColumn id="38" xr3:uid="{1774B33C-2378-4B23-8129-EB9D08AB7A4C}" uniqueName="38" name="servicecontractid" queryTableFieldId="38" dataDxfId="167"/>
+    <tableColumn id="39" xr3:uid="{4A3B649F-89FF-4022-8208-EF19128D888F}" uniqueName="39" name="eventsprocesseddate" queryTableFieldId="39" dataDxfId="166"/>
     <tableColumn id="40" xr3:uid="{F633E749-6BFD-48BA-8D7F-CAC7F0953849}" uniqueName="40" name="engineeringreqnumber__c" queryTableFieldId="40"/>
-    <tableColumn id="41" xr3:uid="{3527941F-019F-4E6A-AB1B-888921E13E03}" uniqueName="41" name="slaviolation__c" queryTableFieldId="41" dataDxfId="116"/>
-    <tableColumn id="42" xr3:uid="{14F82054-0B18-402F-BD91-6E37561A935B}" uniqueName="42" name="product__c" queryTableFieldId="42" dataDxfId="115"/>
-    <tableColumn id="43" xr3:uid="{86DC9F19-63E2-468D-91A8-27915959AC50}" uniqueName="43" name="potentialliability__c" queryTableFieldId="43" dataDxfId="114"/>
+    <tableColumn id="41" xr3:uid="{3527941F-019F-4E6A-AB1B-888921E13E03}" uniqueName="41" name="slaviolation__c" queryTableFieldId="41" dataDxfId="165"/>
+    <tableColumn id="42" xr3:uid="{14F82054-0B18-402F-BD91-6E37561A935B}" uniqueName="42" name="product__c" queryTableFieldId="42" dataDxfId="164"/>
+    <tableColumn id="43" xr3:uid="{86DC9F19-63E2-468D-91A8-27915959AC50}" uniqueName="43" name="potentialliability__c" queryTableFieldId="43" dataDxfId="163"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6208,66 +6219,69 @@
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C24FA430-B934-438A-ADC5-1DC49BFFDCDD}" name="contact" displayName="contact" ref="A1:BG21" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:BG21" xr:uid="{C24FA430-B934-438A-ADC5-1DC49BFFDCDD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BG21">
+    <sortCondition ref="D1:D21"/>
+  </sortState>
   <tableColumns count="59">
-    <tableColumn id="1" xr3:uid="{66B30031-5E88-43DF-8376-80342ED60AD8}" uniqueName="1" name="contact_id" queryTableFieldId="1" dataDxfId="113"/>
+    <tableColumn id="1" xr3:uid="{66B30031-5E88-43DF-8376-80342ED60AD8}" uniqueName="1" name="contact_id" queryTableFieldId="1" dataDxfId="162"/>
     <tableColumn id="2" xr3:uid="{39FAD7E5-9BDE-4259-AE90-A0DB0F9C1558}" uniqueName="2" name="isdeleted" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{07EB5440-1572-4B68-B249-4671D53E2FEB}" uniqueName="3" name="masterrecordid" queryTableFieldId="3" dataDxfId="112"/>
-    <tableColumn id="4" xr3:uid="{DB53B801-9B15-4818-A519-A2B4B432D38B}" uniqueName="4" name="accountid" queryTableFieldId="4" dataDxfId="111"/>
-    <tableColumn id="5" xr3:uid="{10819EEE-184C-46A2-BABA-0ACC860F572B}" uniqueName="5" name="salutation" queryTableFieldId="5" dataDxfId="110"/>
-    <tableColumn id="6" xr3:uid="{9A704806-EBBE-4EB1-BF7D-45E7397D3038}" uniqueName="6" name="firstname" queryTableFieldId="6" dataDxfId="109"/>
-    <tableColumn id="7" xr3:uid="{DB3D837F-6E39-4A85-9A4D-7294FBF15648}" uniqueName="7" name="lastname" queryTableFieldId="7" dataDxfId="108"/>
-    <tableColumn id="8" xr3:uid="{798E8BC6-43B8-45C1-8459-7CEDECD470E7}" uniqueName="8" name="otherstreet" queryTableFieldId="8" dataDxfId="107"/>
-    <tableColumn id="9" xr3:uid="{BC63DC43-1CE1-463A-A3D4-2BD54217AD79}" uniqueName="9" name="othercity" queryTableFieldId="9" dataDxfId="106"/>
-    <tableColumn id="10" xr3:uid="{9858B468-585D-40E7-8BFF-CB153A89828F}" uniqueName="10" name="otherstate" queryTableFieldId="10" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{07EB5440-1572-4B68-B249-4671D53E2FEB}" uniqueName="3" name="masterrecordid" queryTableFieldId="3" dataDxfId="161"/>
+    <tableColumn id="4" xr3:uid="{DB53B801-9B15-4818-A519-A2B4B432D38B}" uniqueName="4" name="accountid" queryTableFieldId="4" dataDxfId="160"/>
+    <tableColumn id="5" xr3:uid="{10819EEE-184C-46A2-BABA-0ACC860F572B}" uniqueName="5" name="salutation" queryTableFieldId="5" dataDxfId="159"/>
+    <tableColumn id="6" xr3:uid="{9A704806-EBBE-4EB1-BF7D-45E7397D3038}" uniqueName="6" name="firstname" queryTableFieldId="6" dataDxfId="158"/>
+    <tableColumn id="7" xr3:uid="{DB3D837F-6E39-4A85-9A4D-7294FBF15648}" uniqueName="7" name="lastname" queryTableFieldId="7" dataDxfId="157"/>
+    <tableColumn id="8" xr3:uid="{798E8BC6-43B8-45C1-8459-7CEDECD470E7}" uniqueName="8" name="otherstreet" queryTableFieldId="8" dataDxfId="156"/>
+    <tableColumn id="9" xr3:uid="{BC63DC43-1CE1-463A-A3D4-2BD54217AD79}" uniqueName="9" name="othercity" queryTableFieldId="9" dataDxfId="155"/>
+    <tableColumn id="10" xr3:uid="{9858B468-585D-40E7-8BFF-CB153A89828F}" uniqueName="10" name="otherstate" queryTableFieldId="10" dataDxfId="154"/>
     <tableColumn id="11" xr3:uid="{2978361A-50FB-4476-ACE3-9A45B6957E45}" uniqueName="11" name="otherpostalcode" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{B2FD5BE0-F2BB-454B-88DA-9E1504E0E6AC}" uniqueName="12" name="othercountry" queryTableFieldId="12" dataDxfId="104"/>
-    <tableColumn id="13" xr3:uid="{6989998B-8F22-4BC6-A6CD-A5AD0E31AB91}" uniqueName="13" name="otherlatitude" queryTableFieldId="13" dataDxfId="103"/>
-    <tableColumn id="14" xr3:uid="{E1A252F3-20B1-4AAE-B094-36DCAB04F1DD}" uniqueName="14" name="otherlongitude" queryTableFieldId="14" dataDxfId="102"/>
-    <tableColumn id="15" xr3:uid="{1FB90067-EB2F-4211-8D36-B2FA54A8B33C}" uniqueName="15" name="othergeocodeaccuracy" queryTableFieldId="15" dataDxfId="101"/>
-    <tableColumn id="16" xr3:uid="{95D08333-1A95-48AE-9E7E-EF983A848B38}" uniqueName="16" name="mailingstreet" queryTableFieldId="16" dataDxfId="100"/>
-    <tableColumn id="17" xr3:uid="{4DDAC8B1-0EAF-4333-AED7-CA54EC5933AD}" uniqueName="17" name="mailingcity" queryTableFieldId="17" dataDxfId="99"/>
-    <tableColumn id="18" xr3:uid="{A386B5CB-8E36-4BA6-BC46-AF6C6B4DD18A}" uniqueName="18" name="mailingstate" queryTableFieldId="18" dataDxfId="98"/>
+    <tableColumn id="12" xr3:uid="{B2FD5BE0-F2BB-454B-88DA-9E1504E0E6AC}" uniqueName="12" name="othercountry" queryTableFieldId="12" dataDxfId="153"/>
+    <tableColumn id="13" xr3:uid="{6989998B-8F22-4BC6-A6CD-A5AD0E31AB91}" uniqueName="13" name="otherlatitude" queryTableFieldId="13" dataDxfId="152"/>
+    <tableColumn id="14" xr3:uid="{E1A252F3-20B1-4AAE-B094-36DCAB04F1DD}" uniqueName="14" name="otherlongitude" queryTableFieldId="14" dataDxfId="151"/>
+    <tableColumn id="15" xr3:uid="{1FB90067-EB2F-4211-8D36-B2FA54A8B33C}" uniqueName="15" name="othergeocodeaccuracy" queryTableFieldId="15" dataDxfId="150"/>
+    <tableColumn id="16" xr3:uid="{95D08333-1A95-48AE-9E7E-EF983A848B38}" uniqueName="16" name="mailingstreet" queryTableFieldId="16" dataDxfId="149"/>
+    <tableColumn id="17" xr3:uid="{4DDAC8B1-0EAF-4333-AED7-CA54EC5933AD}" uniqueName="17" name="mailingcity" queryTableFieldId="17" dataDxfId="148"/>
+    <tableColumn id="18" xr3:uid="{A386B5CB-8E36-4BA6-BC46-AF6C6B4DD18A}" uniqueName="18" name="mailingstate" queryTableFieldId="18" dataDxfId="147"/>
     <tableColumn id="19" xr3:uid="{3603199D-1E3D-422F-9CDC-6B2F02BCD8A4}" uniqueName="19" name="mailingpostalcode" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{8EFEC61A-FCEC-47F1-827B-5F0A19C7F482}" uniqueName="20" name="mailingcountry" queryTableFieldId="20" dataDxfId="97"/>
-    <tableColumn id="21" xr3:uid="{9C9CBF44-0168-40DD-A20E-0286B72D5B1E}" uniqueName="21" name="mailinglatitude" queryTableFieldId="21" dataDxfId="96"/>
-    <tableColumn id="22" xr3:uid="{61F9C217-2B32-4D50-ACD6-55281429473C}" uniqueName="22" name="mailinglongitude" queryTableFieldId="22" dataDxfId="95"/>
-    <tableColumn id="23" xr3:uid="{C6975C0B-C444-4EB8-A471-55B28438CB29}" uniqueName="23" name="mailinggeocodeaccuracy" queryTableFieldId="23" dataDxfId="94"/>
-    <tableColumn id="24" xr3:uid="{07A9A0CC-0064-4193-8582-E10F85962533}" uniqueName="24" name="phone" queryTableFieldId="24" dataDxfId="93"/>
-    <tableColumn id="25" xr3:uid="{B3DAF5FD-4DFA-4A30-B799-A8D937265332}" uniqueName="25" name="fax" queryTableFieldId="25" dataDxfId="92"/>
-    <tableColumn id="26" xr3:uid="{9AF48D75-A21D-4C5B-AD2E-40C23ABC2E37}" uniqueName="26" name="mobilephone" queryTableFieldId="26" dataDxfId="91"/>
-    <tableColumn id="27" xr3:uid="{47DE3A4D-0016-4E81-8DB0-C1127D2406D6}" uniqueName="27" name="homephone" queryTableFieldId="27" dataDxfId="90"/>
-    <tableColumn id="28" xr3:uid="{2A8EB9ED-0DEC-48AA-AB63-B1DA73A00367}" uniqueName="28" name="otherphone" queryTableFieldId="28" dataDxfId="89"/>
-    <tableColumn id="29" xr3:uid="{0E014767-DCDF-49BE-84DF-BF35D4C3E369}" uniqueName="29" name="assistantphone" queryTableFieldId="29" dataDxfId="88"/>
-    <tableColumn id="30" xr3:uid="{BAC36A75-2D4D-455D-A780-866E28DF12D4}" uniqueName="30" name="reportstoid" queryTableFieldId="30" dataDxfId="87"/>
-    <tableColumn id="31" xr3:uid="{F44A43EA-8C36-4A8D-8141-CF1BA2E9836A}" uniqueName="31" name="email" queryTableFieldId="31" dataDxfId="86"/>
-    <tableColumn id="32" xr3:uid="{EF63CA20-17A9-4136-ADCD-3F438ED415D7}" uniqueName="32" name="title" queryTableFieldId="32" dataDxfId="85"/>
-    <tableColumn id="33" xr3:uid="{2A996B83-0421-44AF-B24C-8B667E6D32A7}" uniqueName="33" name="department" queryTableFieldId="33" dataDxfId="84"/>
-    <tableColumn id="34" xr3:uid="{C96B8AFD-09AC-4244-BB4C-0FF6CD7EFE63}" uniqueName="34" name="assistantname" queryTableFieldId="34" dataDxfId="83"/>
-    <tableColumn id="35" xr3:uid="{7FBF9BAE-4074-4C87-83B0-CB5B8DB0F8EA}" uniqueName="35" name="leadsource" queryTableFieldId="35" dataDxfId="82"/>
-    <tableColumn id="36" xr3:uid="{B1A6F15A-E4E3-428C-8378-28D94A2690C9}" uniqueName="36" name="birthdate" queryTableFieldId="36" dataDxfId="81"/>
-    <tableColumn id="37" xr3:uid="{1EDB3F33-0FBC-4682-91F0-C5681C92BCDD}" uniqueName="37" name="description" queryTableFieldId="37" dataDxfId="80"/>
-    <tableColumn id="38" xr3:uid="{E16A15C1-FDC4-430A-97CF-AFE15984C61D}" uniqueName="38" name="ownerid" queryTableFieldId="38" dataDxfId="79"/>
+    <tableColumn id="20" xr3:uid="{8EFEC61A-FCEC-47F1-827B-5F0A19C7F482}" uniqueName="20" name="mailingcountry" queryTableFieldId="20" dataDxfId="146"/>
+    <tableColumn id="21" xr3:uid="{9C9CBF44-0168-40DD-A20E-0286B72D5B1E}" uniqueName="21" name="mailinglatitude" queryTableFieldId="21" dataDxfId="145"/>
+    <tableColumn id="22" xr3:uid="{61F9C217-2B32-4D50-ACD6-55281429473C}" uniqueName="22" name="mailinglongitude" queryTableFieldId="22" dataDxfId="144"/>
+    <tableColumn id="23" xr3:uid="{C6975C0B-C444-4EB8-A471-55B28438CB29}" uniqueName="23" name="mailinggeocodeaccuracy" queryTableFieldId="23" dataDxfId="143"/>
+    <tableColumn id="24" xr3:uid="{07A9A0CC-0064-4193-8582-E10F85962533}" uniqueName="24" name="phone" queryTableFieldId="24" dataDxfId="142"/>
+    <tableColumn id="25" xr3:uid="{B3DAF5FD-4DFA-4A30-B799-A8D937265332}" uniqueName="25" name="fax" queryTableFieldId="25" dataDxfId="141"/>
+    <tableColumn id="26" xr3:uid="{9AF48D75-A21D-4C5B-AD2E-40C23ABC2E37}" uniqueName="26" name="mobilephone" queryTableFieldId="26" dataDxfId="140"/>
+    <tableColumn id="27" xr3:uid="{47DE3A4D-0016-4E81-8DB0-C1127D2406D6}" uniqueName="27" name="homephone" queryTableFieldId="27" dataDxfId="139"/>
+    <tableColumn id="28" xr3:uid="{2A8EB9ED-0DEC-48AA-AB63-B1DA73A00367}" uniqueName="28" name="otherphone" queryTableFieldId="28" dataDxfId="138"/>
+    <tableColumn id="29" xr3:uid="{0E014767-DCDF-49BE-84DF-BF35D4C3E369}" uniqueName="29" name="assistantphone" queryTableFieldId="29" dataDxfId="137"/>
+    <tableColumn id="30" xr3:uid="{BAC36A75-2D4D-455D-A780-866E28DF12D4}" uniqueName="30" name="reportstoid" queryTableFieldId="30" dataDxfId="136"/>
+    <tableColumn id="31" xr3:uid="{F44A43EA-8C36-4A8D-8141-CF1BA2E9836A}" uniqueName="31" name="email" queryTableFieldId="31" dataDxfId="135"/>
+    <tableColumn id="32" xr3:uid="{EF63CA20-17A9-4136-ADCD-3F438ED415D7}" uniqueName="32" name="title" queryTableFieldId="32" dataDxfId="134"/>
+    <tableColumn id="33" xr3:uid="{2A996B83-0421-44AF-B24C-8B667E6D32A7}" uniqueName="33" name="department" queryTableFieldId="33" dataDxfId="133"/>
+    <tableColumn id="34" xr3:uid="{C96B8AFD-09AC-4244-BB4C-0FF6CD7EFE63}" uniqueName="34" name="assistantname" queryTableFieldId="34" dataDxfId="132"/>
+    <tableColumn id="35" xr3:uid="{7FBF9BAE-4074-4C87-83B0-CB5B8DB0F8EA}" uniqueName="35" name="leadsource" queryTableFieldId="35" dataDxfId="131"/>
+    <tableColumn id="36" xr3:uid="{B1A6F15A-E4E3-428C-8378-28D94A2690C9}" uniqueName="36" name="birthdate" queryTableFieldId="36" dataDxfId="130"/>
+    <tableColumn id="37" xr3:uid="{1EDB3F33-0FBC-4682-91F0-C5681C92BCDD}" uniqueName="37" name="description" queryTableFieldId="37" dataDxfId="129"/>
+    <tableColumn id="38" xr3:uid="{E16A15C1-FDC4-430A-97CF-AFE15984C61D}" uniqueName="38" name="ownerid" queryTableFieldId="38" dataDxfId="128"/>
     <tableColumn id="39" xr3:uid="{27FC3680-8550-4497-868C-9959592AA922}" uniqueName="39" name="hasoptedoutofemail" queryTableFieldId="39"/>
     <tableColumn id="40" xr3:uid="{9F93E1FF-31CA-41BA-BD49-260CE606E17F}" uniqueName="40" name="hasoptedoutoffax" queryTableFieldId="40"/>
     <tableColumn id="41" xr3:uid="{AFD3B3CB-E97C-4F98-9A4E-4E9B44C6AD4D}" uniqueName="41" name="donotcall" queryTableFieldId="41"/>
-    <tableColumn id="42" xr3:uid="{639E7AFB-3D79-4592-BB6D-A136C94B2D9C}" uniqueName="42" name="createddate" queryTableFieldId="42" dataDxfId="78"/>
-    <tableColumn id="43" xr3:uid="{46EF6389-38E6-4B3B-B5D9-0A2236FA45D2}" uniqueName="43" name="createdbyid" queryTableFieldId="43" dataDxfId="77"/>
-    <tableColumn id="44" xr3:uid="{24812B84-399C-4C2F-B599-93A43015AA09}" uniqueName="44" name="lastmodifieddate" queryTableFieldId="44" dataDxfId="76"/>
-    <tableColumn id="45" xr3:uid="{6F2E970D-0547-45A1-8E0D-19719193046A}" uniqueName="45" name="lastmodifiedbyid" queryTableFieldId="45" dataDxfId="75"/>
-    <tableColumn id="46" xr3:uid="{738AB50E-29F7-433B-A537-E01C81EAAE2B}" uniqueName="46" name="systemmodstamp" queryTableFieldId="46" dataDxfId="74"/>
-    <tableColumn id="47" xr3:uid="{CE0BCDF4-0880-4DD3-8321-C75629D5EA2B}" uniqueName="47" name="lastactivitydate" queryTableFieldId="47" dataDxfId="73"/>
-    <tableColumn id="48" xr3:uid="{5E53EE79-9D2F-45DB-A575-B87432400CC8}" uniqueName="48" name="lastcurequestdate" queryTableFieldId="48" dataDxfId="72"/>
-    <tableColumn id="49" xr3:uid="{6556E58B-651A-4EF4-877E-98D5E3562778}" uniqueName="49" name="lastcuupdatedate" queryTableFieldId="49" dataDxfId="71"/>
-    <tableColumn id="50" xr3:uid="{43657BFC-48E4-4561-A0AF-06CCC6D23A0E}" uniqueName="50" name="emailbouncedreason" queryTableFieldId="50" dataDxfId="70"/>
-    <tableColumn id="51" xr3:uid="{5B903CB0-D486-426C-8B5F-12018BA876EF}" uniqueName="51" name="emailbounceddate" queryTableFieldId="51" dataDxfId="69"/>
-    <tableColumn id="52" xr3:uid="{9961F89D-48AE-42E7-BEAB-97ECB97100A7}" uniqueName="52" name="jigsaw" queryTableFieldId="52" dataDxfId="68"/>
-    <tableColumn id="53" xr3:uid="{A82801EB-48AE-409F-B9E8-9394337ACFF3}" uniqueName="53" name="jigsawcontactid" queryTableFieldId="53" dataDxfId="67"/>
-    <tableColumn id="54" xr3:uid="{90047B9F-215D-47BE-87B8-4FC9AE5F8A06}" uniqueName="54" name="cleanstatus" queryTableFieldId="54" dataDxfId="66"/>
-    <tableColumn id="55" xr3:uid="{4D8657CC-264A-4AB2-B0B2-EC98E12BEF34}" uniqueName="55" name="individualid" queryTableFieldId="55" dataDxfId="65"/>
-    <tableColumn id="56" xr3:uid="{ED3D14CA-D5D9-4EE9-824B-33135EB1724E}" uniqueName="56" name="pronouns" queryTableFieldId="56" dataDxfId="64"/>
-    <tableColumn id="57" xr3:uid="{CFBCA8C6-5D51-4D27-8D54-92EA00E9F4D5}" uniqueName="57" name="genderidentity" queryTableFieldId="57" dataDxfId="63"/>
-    <tableColumn id="58" xr3:uid="{7E147CC2-6EB2-46C4-8B44-1C48F6CEA6ED}" uniqueName="58" name="level__c" queryTableFieldId="58" dataDxfId="62"/>
-    <tableColumn id="59" xr3:uid="{58F52845-5B41-485A-8957-869E6632927C}" uniqueName="59" name="languages__c" queryTableFieldId="59" dataDxfId="61"/>
+    <tableColumn id="42" xr3:uid="{639E7AFB-3D79-4592-BB6D-A136C94B2D9C}" uniqueName="42" name="createddate" queryTableFieldId="42" dataDxfId="127"/>
+    <tableColumn id="43" xr3:uid="{46EF6389-38E6-4B3B-B5D9-0A2236FA45D2}" uniqueName="43" name="createdbyid" queryTableFieldId="43" dataDxfId="126"/>
+    <tableColumn id="44" xr3:uid="{24812B84-399C-4C2F-B599-93A43015AA09}" uniqueName="44" name="lastmodifieddate" queryTableFieldId="44" dataDxfId="125"/>
+    <tableColumn id="45" xr3:uid="{6F2E970D-0547-45A1-8E0D-19719193046A}" uniqueName="45" name="lastmodifiedbyid" queryTableFieldId="45" dataDxfId="124"/>
+    <tableColumn id="46" xr3:uid="{738AB50E-29F7-433B-A537-E01C81EAAE2B}" uniqueName="46" name="systemmodstamp" queryTableFieldId="46" dataDxfId="123"/>
+    <tableColumn id="47" xr3:uid="{CE0BCDF4-0880-4DD3-8321-C75629D5EA2B}" uniqueName="47" name="lastactivitydate" queryTableFieldId="47" dataDxfId="122"/>
+    <tableColumn id="48" xr3:uid="{5E53EE79-9D2F-45DB-A575-B87432400CC8}" uniqueName="48" name="lastcurequestdate" queryTableFieldId="48" dataDxfId="121"/>
+    <tableColumn id="49" xr3:uid="{6556E58B-651A-4EF4-877E-98D5E3562778}" uniqueName="49" name="lastcuupdatedate" queryTableFieldId="49" dataDxfId="120"/>
+    <tableColumn id="50" xr3:uid="{43657BFC-48E4-4561-A0AF-06CCC6D23A0E}" uniqueName="50" name="emailbouncedreason" queryTableFieldId="50" dataDxfId="119"/>
+    <tableColumn id="51" xr3:uid="{5B903CB0-D486-426C-8B5F-12018BA876EF}" uniqueName="51" name="emailbounceddate" queryTableFieldId="51" dataDxfId="118"/>
+    <tableColumn id="52" xr3:uid="{9961F89D-48AE-42E7-BEAB-97ECB97100A7}" uniqueName="52" name="jigsaw" queryTableFieldId="52" dataDxfId="117"/>
+    <tableColumn id="53" xr3:uid="{A82801EB-48AE-409F-B9E8-9394337ACFF3}" uniqueName="53" name="jigsawcontactid" queryTableFieldId="53" dataDxfId="116"/>
+    <tableColumn id="54" xr3:uid="{90047B9F-215D-47BE-87B8-4FC9AE5F8A06}" uniqueName="54" name="cleanstatus" queryTableFieldId="54" dataDxfId="115"/>
+    <tableColumn id="55" xr3:uid="{4D8657CC-264A-4AB2-B0B2-EC98E12BEF34}" uniqueName="55" name="individualid" queryTableFieldId="55" dataDxfId="114"/>
+    <tableColumn id="56" xr3:uid="{ED3D14CA-D5D9-4EE9-824B-33135EB1724E}" uniqueName="56" name="pronouns" queryTableFieldId="56" dataDxfId="113"/>
+    <tableColumn id="57" xr3:uid="{CFBCA8C6-5D51-4D27-8D54-92EA00E9F4D5}" uniqueName="57" name="genderidentity" queryTableFieldId="57" dataDxfId="112"/>
+    <tableColumn id="58" xr3:uid="{7E147CC2-6EB2-46C4-8B44-1C48F6CEA6ED}" uniqueName="58" name="level__c" queryTableFieldId="58" dataDxfId="111"/>
+    <tableColumn id="59" xr3:uid="{58F52845-5B41-485A-8957-869E6632927C}" uniqueName="59" name="languages__c" queryTableFieldId="59" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6277,67 +6291,67 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63C18A1A-FF59-4838-9450-C84ED944034D}" name="account" displayName="account" ref="A1:BI14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:BI14" xr:uid="{63C18A1A-FF59-4838-9450-C84ED944034D}"/>
   <tableColumns count="61">
-    <tableColumn id="1" xr3:uid="{805B55E2-A304-49DC-A7AD-4A677B4EA0CC}" uniqueName="1" name="account_id" queryTableFieldId="1" dataDxfId="60"/>
-    <tableColumn id="62" xr3:uid="{18F8A761-28CF-426C-9BC0-F4626608AD69}" uniqueName="62" name="is_deleted" queryTableFieldId="62" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{6468ABE5-1409-4EF7-891A-9E948C0288AA}" uniqueName="3" name="masterrecordid" queryTableFieldId="3" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{DDC0079D-B857-44A7-AD97-8018E5A8D9D0}" uniqueName="4" name="name" queryTableFieldId="4" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{7051AA7E-3B80-4B69-9AF3-3B37F54D0EBC}" uniqueName="5" name="type" queryTableFieldId="5" dataDxfId="56"/>
-    <tableColumn id="63" xr3:uid="{3D122661-7A46-4FF4-85CC-C47838DF91F6}" uniqueName="63" name="parent_id" queryTableFieldId="63" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{F28D27BB-4E73-4F4E-9060-836AFBC9E353}" uniqueName="7" name="billingstreet" queryTableFieldId="7" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{448D9ABB-8682-4F4F-B440-11A2565D2643}" uniqueName="8" name="billingcity" queryTableFieldId="8" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{25492924-8F53-4FA1-A2F5-0681ED0713B2}" uniqueName="9" name="billingstate" queryTableFieldId="9" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{49DF5A33-CE73-4842-A311-DC8D1E848705}" uniqueName="10" name="billingpostalcode" queryTableFieldId="10" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{B6C07686-194D-431B-9D6D-CC96B9FCDE71}" uniqueName="11" name="billingcountry" queryTableFieldId="11" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{BFA6F721-61B3-4419-8168-649345C2B574}" uniqueName="12" name="billinglatitude" queryTableFieldId="12" dataDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{AD391E97-FFCB-4C5D-B4CC-158F761536FA}" uniqueName="13" name="billinglongitude" queryTableFieldId="13" dataDxfId="48"/>
-    <tableColumn id="14" xr3:uid="{3FD87882-1667-46CC-808F-F992EF12E1A6}" uniqueName="14" name="billinggeocodeaccuracy" queryTableFieldId="14" dataDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{874751DF-E022-40C3-894D-DE6902D4C9FA}" uniqueName="15" name="shippingstreet" queryTableFieldId="15" dataDxfId="46"/>
-    <tableColumn id="16" xr3:uid="{D87BA408-8928-477B-997E-7E331A0479C3}" uniqueName="16" name="shippingcity" queryTableFieldId="16" dataDxfId="45"/>
-    <tableColumn id="17" xr3:uid="{93330D76-AADD-444C-BD20-B728C902775E}" uniqueName="17" name="shippingstate" queryTableFieldId="17" dataDxfId="44"/>
-    <tableColumn id="18" xr3:uid="{55B5B05C-19CC-4B20-BA97-67F9C32B454A}" uniqueName="18" name="shippingpostalcode" queryTableFieldId="18" dataDxfId="43"/>
-    <tableColumn id="19" xr3:uid="{0A1B9430-E38F-4978-A44D-3C206D8F94FC}" uniqueName="19" name="shippingcountry" queryTableFieldId="19" dataDxfId="42"/>
-    <tableColumn id="20" xr3:uid="{FC1215C9-D55E-463C-B138-A73E3C404165}" uniqueName="20" name="shippinglatitude" queryTableFieldId="20" dataDxfId="41"/>
-    <tableColumn id="21" xr3:uid="{30F100F8-EB7F-49B5-9E04-15B83DAE5A6A}" uniqueName="21" name="shippinglongitude" queryTableFieldId="21" dataDxfId="40"/>
-    <tableColumn id="22" xr3:uid="{708075D7-B3CE-42E8-814C-CA3BC63E7CC2}" uniqueName="22" name="shippinggeocodeaccuracy" queryTableFieldId="22" dataDxfId="39"/>
-    <tableColumn id="23" xr3:uid="{94F32333-D396-411C-9DA5-F72BC84FE55A}" uniqueName="23" name="phone" queryTableFieldId="23" dataDxfId="38"/>
-    <tableColumn id="24" xr3:uid="{09E1F11B-9E7C-46B3-A26B-7C2B8BC4C2B9}" uniqueName="24" name="fax" queryTableFieldId="24" dataDxfId="37"/>
-    <tableColumn id="25" xr3:uid="{AB169F6A-A001-4C1B-9783-50338E641FE7}" uniqueName="25" name="accountnumber" queryTableFieldId="25" dataDxfId="36"/>
-    <tableColumn id="26" xr3:uid="{9938A131-CE73-4587-97C5-B04A60FA441E}" uniqueName="26" name="website" queryTableFieldId="26" dataDxfId="35"/>
-    <tableColumn id="27" xr3:uid="{B61A489E-85C8-4017-8A3A-5DABC03A5A60}" uniqueName="27" name="sic" queryTableFieldId="27" dataDxfId="34"/>
-    <tableColumn id="28" xr3:uid="{DECB25B6-36B5-47BA-8651-CA03F099E7B4}" uniqueName="28" name="industry" queryTableFieldId="28" dataDxfId="33"/>
-    <tableColumn id="29" xr3:uid="{3DD0A45B-DF2D-421D-912C-019877E91ABC}" uniqueName="29" name="annualrevenue" queryTableFieldId="29" dataDxfId="32"/>
-    <tableColumn id="30" xr3:uid="{14BC2284-72AA-48E9-B21C-8DCBDF350B2C}" uniqueName="30" name="numberofemployees" queryTableFieldId="30" dataDxfId="31"/>
-    <tableColumn id="31" xr3:uid="{7559F153-7CB5-4C3D-92DB-77DB1BF63568}" uniqueName="31" name="ownership" queryTableFieldId="31" dataDxfId="30"/>
-    <tableColumn id="32" xr3:uid="{B66BA3D4-C603-42DB-877A-9630ED6BEEAF}" uniqueName="32" name="tickersymbol" queryTableFieldId="32" dataDxfId="29"/>
-    <tableColumn id="33" xr3:uid="{D2D00694-1B47-48FC-9229-172D8AAB2C57}" uniqueName="33" name="description" queryTableFieldId="33" dataDxfId="28"/>
-    <tableColumn id="34" xr3:uid="{156FE60A-B29C-4C81-BD00-66E5EECA6AAE}" uniqueName="34" name="rating" queryTableFieldId="34" dataDxfId="27"/>
-    <tableColumn id="35" xr3:uid="{81279CC5-0899-425A-AF11-A4B2F9774FC1}" uniqueName="35" name="site" queryTableFieldId="35" dataDxfId="26"/>
-    <tableColumn id="64" xr3:uid="{E753F147-43FF-4C6C-867A-2EF9BC88E911}" uniqueName="64" name="user_id_owner" queryTableFieldId="64" dataDxfId="25"/>
-    <tableColumn id="65" xr3:uid="{D85EB822-E908-43A2-936D-176600555DFB}" uniqueName="65" name="datetime_create" queryTableFieldId="65" dataDxfId="24"/>
-    <tableColumn id="66" xr3:uid="{31BEDC5C-0ABE-465E-A72F-1286D3B1D412}" uniqueName="66" name="user_id_create" queryTableFieldId="66" dataDxfId="23"/>
-    <tableColumn id="67" xr3:uid="{CB988553-AAF6-4B9F-974E-9F8669CDAAF1}" uniqueName="67" name="datetime_last_modified" queryTableFieldId="67" dataDxfId="22"/>
-    <tableColumn id="68" xr3:uid="{8EF466FC-85E8-40D7-97DA-9A9AEA6C585A}" uniqueName="68" name="user_id_last_modified" queryTableFieldId="68" dataDxfId="21"/>
-    <tableColumn id="69" xr3:uid="{ED24937A-E54F-4B84-8A24-F1BED0CD4574}" uniqueName="69" name="datetime_system_mod" queryTableFieldId="69" dataDxfId="20"/>
-    <tableColumn id="42" xr3:uid="{929FB9D4-78D6-4979-BBFC-CC32933DB78D}" uniqueName="42" name="lastactivitydate" queryTableFieldId="42" dataDxfId="19"/>
-    <tableColumn id="43" xr3:uid="{C73BFCD5-F6C4-49C7-834C-A92CAA8BF8CF}" uniqueName="43" name="jigsaw" queryTableFieldId="43" dataDxfId="18"/>
-    <tableColumn id="44" xr3:uid="{921EAB61-CEB4-4608-8C47-11764CD6F073}" uniqueName="44" name="jigsawcompanyid" queryTableFieldId="44" dataDxfId="17"/>
-    <tableColumn id="70" xr3:uid="{3EBAA2E4-720A-4BFC-AD4B-DE863DD8D5CA}" uniqueName="70" name="status" queryTableFieldId="70" dataDxfId="16"/>
-    <tableColumn id="46" xr3:uid="{5AEBB1AE-BC87-404C-8B26-7AE839AF9B2F}" uniqueName="46" name="accountsource" queryTableFieldId="46" dataDxfId="15"/>
-    <tableColumn id="47" xr3:uid="{A25377FD-FD90-4001-85CD-776A61E7E691}" uniqueName="47" name="dunsnumber" queryTableFieldId="47" dataDxfId="14"/>
-    <tableColumn id="48" xr3:uid="{F5CF5082-7FA5-452B-8A86-E5C9D483E58D}" uniqueName="48" name="tradestyle" queryTableFieldId="48" dataDxfId="13"/>
-    <tableColumn id="49" xr3:uid="{2946651A-DD41-404E-940D-95E0B6418669}" uniqueName="49" name="naicscode" queryTableFieldId="49" dataDxfId="12"/>
-    <tableColumn id="50" xr3:uid="{D5BCD749-8B81-4539-86C9-903F9A6D14F9}" uniqueName="50" name="naicsdesc" queryTableFieldId="50" dataDxfId="11"/>
-    <tableColumn id="51" xr3:uid="{24CADAD9-0D56-4F1A-A567-3D6FCDFA9107}" uniqueName="51" name="yearstarted" queryTableFieldId="51" dataDxfId="10"/>
-    <tableColumn id="52" xr3:uid="{B46BAFBF-72C2-41B2-8ABE-6A9D05396E1F}" uniqueName="52" name="sicdesc" queryTableFieldId="52" dataDxfId="9"/>
-    <tableColumn id="71" xr3:uid="{EAD846D1-12BC-4906-8707-A3EF5B16F3E9}" uniqueName="71" name="dandbcompany_id" queryTableFieldId="71" dataDxfId="8"/>
-    <tableColumn id="72" xr3:uid="{5C47F162-D70C-419F-B3A4-D5D5C3400A64}" uniqueName="72" name="operatinghours_id" queryTableFieldId="72" dataDxfId="7"/>
-    <tableColumn id="73" xr3:uid="{B0C59782-55F6-4A79-B509-E3343D03FBD2}" uniqueName="73" name="customer_priority" queryTableFieldId="73" dataDxfId="6"/>
-    <tableColumn id="74" xr3:uid="{B1B91D2F-03F6-44B2-A306-8A91B3D7A305}" uniqueName="74" name="sla_category" queryTableFieldId="74" dataDxfId="5"/>
-    <tableColumn id="75" xr3:uid="{6890FF49-98A5-4836-BBFF-28A0C77245DB}" uniqueName="75" name="is_active" queryTableFieldId="75" dataDxfId="4"/>
-    <tableColumn id="76" xr3:uid="{2BCC13FC-4595-4FC0-911F-5FEC18EB791A}" uniqueName="76" name="number_of_locations" queryTableFieldId="76" dataDxfId="3"/>
-    <tableColumn id="77" xr3:uid="{91A75CC1-8848-4F23-8239-A4AD8DE443F4}" uniqueName="77" name="upsell_opportunity" queryTableFieldId="77" dataDxfId="2"/>
-    <tableColumn id="78" xr3:uid="{757E9B96-8A60-4517-826C-B0F3ED111926}" uniqueName="78" name="sla_serial_number" queryTableFieldId="78" dataDxfId="1"/>
-    <tableColumn id="79" xr3:uid="{8935DE4F-145B-4FFE-82A9-2E53ECDCD769}" uniqueName="79" name="date_sla_expiration" queryTableFieldId="79" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{805B55E2-A304-49DC-A7AD-4A677B4EA0CC}" uniqueName="1" name="account_id" queryTableFieldId="1" dataDxfId="109"/>
+    <tableColumn id="62" xr3:uid="{18F8A761-28CF-426C-9BC0-F4626608AD69}" uniqueName="62" name="is_deleted" queryTableFieldId="62" dataDxfId="108"/>
+    <tableColumn id="3" xr3:uid="{6468ABE5-1409-4EF7-891A-9E948C0288AA}" uniqueName="3" name="masterrecordid" queryTableFieldId="3" dataDxfId="107"/>
+    <tableColumn id="4" xr3:uid="{DDC0079D-B857-44A7-AD97-8018E5A8D9D0}" uniqueName="4" name="name" queryTableFieldId="4" dataDxfId="106"/>
+    <tableColumn id="5" xr3:uid="{7051AA7E-3B80-4B69-9AF3-3B37F54D0EBC}" uniqueName="5" name="type" queryTableFieldId="5" dataDxfId="105"/>
+    <tableColumn id="63" xr3:uid="{3D122661-7A46-4FF4-85CC-C47838DF91F6}" uniqueName="63" name="parent_id" queryTableFieldId="63" dataDxfId="104"/>
+    <tableColumn id="7" xr3:uid="{F28D27BB-4E73-4F4E-9060-836AFBC9E353}" uniqueName="7" name="billingstreet" queryTableFieldId="7" dataDxfId="103"/>
+    <tableColumn id="8" xr3:uid="{448D9ABB-8682-4F4F-B440-11A2565D2643}" uniqueName="8" name="billingcity" queryTableFieldId="8" dataDxfId="102"/>
+    <tableColumn id="9" xr3:uid="{25492924-8F53-4FA1-A2F5-0681ED0713B2}" uniqueName="9" name="billingstate" queryTableFieldId="9" dataDxfId="101"/>
+    <tableColumn id="10" xr3:uid="{49DF5A33-CE73-4842-A311-DC8D1E848705}" uniqueName="10" name="billingpostalcode" queryTableFieldId="10" dataDxfId="100"/>
+    <tableColumn id="11" xr3:uid="{B6C07686-194D-431B-9D6D-CC96B9FCDE71}" uniqueName="11" name="billingcountry" queryTableFieldId="11" dataDxfId="99"/>
+    <tableColumn id="12" xr3:uid="{BFA6F721-61B3-4419-8168-649345C2B574}" uniqueName="12" name="billinglatitude" queryTableFieldId="12" dataDxfId="98"/>
+    <tableColumn id="13" xr3:uid="{AD391E97-FFCB-4C5D-B4CC-158F761536FA}" uniqueName="13" name="billinglongitude" queryTableFieldId="13" dataDxfId="97"/>
+    <tableColumn id="14" xr3:uid="{3FD87882-1667-46CC-808F-F992EF12E1A6}" uniqueName="14" name="billinggeocodeaccuracy" queryTableFieldId="14" dataDxfId="96"/>
+    <tableColumn id="15" xr3:uid="{874751DF-E022-40C3-894D-DE6902D4C9FA}" uniqueName="15" name="shippingstreet" queryTableFieldId="15" dataDxfId="95"/>
+    <tableColumn id="16" xr3:uid="{D87BA408-8928-477B-997E-7E331A0479C3}" uniqueName="16" name="shippingcity" queryTableFieldId="16" dataDxfId="94"/>
+    <tableColumn id="17" xr3:uid="{93330D76-AADD-444C-BD20-B728C902775E}" uniqueName="17" name="shippingstate" queryTableFieldId="17" dataDxfId="93"/>
+    <tableColumn id="18" xr3:uid="{55B5B05C-19CC-4B20-BA97-67F9C32B454A}" uniqueName="18" name="shippingpostalcode" queryTableFieldId="18" dataDxfId="92"/>
+    <tableColumn id="19" xr3:uid="{0A1B9430-E38F-4978-A44D-3C206D8F94FC}" uniqueName="19" name="shippingcountry" queryTableFieldId="19" dataDxfId="91"/>
+    <tableColumn id="20" xr3:uid="{FC1215C9-D55E-463C-B138-A73E3C404165}" uniqueName="20" name="shippinglatitude" queryTableFieldId="20" dataDxfId="90"/>
+    <tableColumn id="21" xr3:uid="{30F100F8-EB7F-49B5-9E04-15B83DAE5A6A}" uniqueName="21" name="shippinglongitude" queryTableFieldId="21" dataDxfId="89"/>
+    <tableColumn id="22" xr3:uid="{708075D7-B3CE-42E8-814C-CA3BC63E7CC2}" uniqueName="22" name="shippinggeocodeaccuracy" queryTableFieldId="22" dataDxfId="88"/>
+    <tableColumn id="23" xr3:uid="{94F32333-D396-411C-9DA5-F72BC84FE55A}" uniqueName="23" name="phone" queryTableFieldId="23" dataDxfId="87"/>
+    <tableColumn id="24" xr3:uid="{09E1F11B-9E7C-46B3-A26B-7C2B8BC4C2B9}" uniqueName="24" name="fax" queryTableFieldId="24" dataDxfId="86"/>
+    <tableColumn id="25" xr3:uid="{AB169F6A-A001-4C1B-9783-50338E641FE7}" uniqueName="25" name="accountnumber" queryTableFieldId="25" dataDxfId="85"/>
+    <tableColumn id="26" xr3:uid="{9938A131-CE73-4587-97C5-B04A60FA441E}" uniqueName="26" name="website" queryTableFieldId="26" dataDxfId="84"/>
+    <tableColumn id="27" xr3:uid="{B61A489E-85C8-4017-8A3A-5DABC03A5A60}" uniqueName="27" name="sic" queryTableFieldId="27" dataDxfId="83"/>
+    <tableColumn id="28" xr3:uid="{DECB25B6-36B5-47BA-8651-CA03F099E7B4}" uniqueName="28" name="industry" queryTableFieldId="28" dataDxfId="82"/>
+    <tableColumn id="29" xr3:uid="{3DD0A45B-DF2D-421D-912C-019877E91ABC}" uniqueName="29" name="annualrevenue" queryTableFieldId="29" dataDxfId="81"/>
+    <tableColumn id="30" xr3:uid="{14BC2284-72AA-48E9-B21C-8DCBDF350B2C}" uniqueName="30" name="numberofemployees" queryTableFieldId="30" dataDxfId="80"/>
+    <tableColumn id="31" xr3:uid="{7559F153-7CB5-4C3D-92DB-77DB1BF63568}" uniqueName="31" name="ownership" queryTableFieldId="31" dataDxfId="79"/>
+    <tableColumn id="32" xr3:uid="{B66BA3D4-C603-42DB-877A-9630ED6BEEAF}" uniqueName="32" name="tickersymbol" queryTableFieldId="32" dataDxfId="78"/>
+    <tableColumn id="33" xr3:uid="{D2D00694-1B47-48FC-9229-172D8AAB2C57}" uniqueName="33" name="description" queryTableFieldId="33" dataDxfId="77"/>
+    <tableColumn id="34" xr3:uid="{156FE60A-B29C-4C81-BD00-66E5EECA6AAE}" uniqueName="34" name="rating" queryTableFieldId="34" dataDxfId="76"/>
+    <tableColumn id="35" xr3:uid="{81279CC5-0899-425A-AF11-A4B2F9774FC1}" uniqueName="35" name="site" queryTableFieldId="35" dataDxfId="75"/>
+    <tableColumn id="64" xr3:uid="{E753F147-43FF-4C6C-867A-2EF9BC88E911}" uniqueName="64" name="user_id_owner" queryTableFieldId="64" dataDxfId="74"/>
+    <tableColumn id="65" xr3:uid="{D85EB822-E908-43A2-936D-176600555DFB}" uniqueName="65" name="datetime_create" queryTableFieldId="65" dataDxfId="73"/>
+    <tableColumn id="66" xr3:uid="{31BEDC5C-0ABE-465E-A72F-1286D3B1D412}" uniqueName="66" name="user_id_create" queryTableFieldId="66" dataDxfId="72"/>
+    <tableColumn id="67" xr3:uid="{CB988553-AAF6-4B9F-974E-9F8669CDAAF1}" uniqueName="67" name="datetime_last_modified" queryTableFieldId="67" dataDxfId="71"/>
+    <tableColumn id="68" xr3:uid="{8EF466FC-85E8-40D7-97DA-9A9AEA6C585A}" uniqueName="68" name="user_id_last_modified" queryTableFieldId="68" dataDxfId="70"/>
+    <tableColumn id="69" xr3:uid="{ED24937A-E54F-4B84-8A24-F1BED0CD4574}" uniqueName="69" name="datetime_system_mod" queryTableFieldId="69" dataDxfId="69"/>
+    <tableColumn id="42" xr3:uid="{929FB9D4-78D6-4979-BBFC-CC32933DB78D}" uniqueName="42" name="lastactivitydate" queryTableFieldId="42" dataDxfId="68"/>
+    <tableColumn id="43" xr3:uid="{C73BFCD5-F6C4-49C7-834C-A92CAA8BF8CF}" uniqueName="43" name="jigsaw" queryTableFieldId="43" dataDxfId="67"/>
+    <tableColumn id="44" xr3:uid="{921EAB61-CEB4-4608-8C47-11764CD6F073}" uniqueName="44" name="jigsawcompanyid" queryTableFieldId="44" dataDxfId="66"/>
+    <tableColumn id="70" xr3:uid="{3EBAA2E4-720A-4BFC-AD4B-DE863DD8D5CA}" uniqueName="70" name="status" queryTableFieldId="70" dataDxfId="65"/>
+    <tableColumn id="46" xr3:uid="{5AEBB1AE-BC87-404C-8B26-7AE839AF9B2F}" uniqueName="46" name="accountsource" queryTableFieldId="46" dataDxfId="64"/>
+    <tableColumn id="47" xr3:uid="{A25377FD-FD90-4001-85CD-776A61E7E691}" uniqueName="47" name="dunsnumber" queryTableFieldId="47" dataDxfId="63"/>
+    <tableColumn id="48" xr3:uid="{F5CF5082-7FA5-452B-8A86-E5C9D483E58D}" uniqueName="48" name="tradestyle" queryTableFieldId="48" dataDxfId="62"/>
+    <tableColumn id="49" xr3:uid="{2946651A-DD41-404E-940D-95E0B6418669}" uniqueName="49" name="naicscode" queryTableFieldId="49" dataDxfId="61"/>
+    <tableColumn id="50" xr3:uid="{D5BCD749-8B81-4539-86C9-903F9A6D14F9}" uniqueName="50" name="naicsdesc" queryTableFieldId="50" dataDxfId="60"/>
+    <tableColumn id="51" xr3:uid="{24CADAD9-0D56-4F1A-A567-3D6FCDFA9107}" uniqueName="51" name="yearstarted" queryTableFieldId="51" dataDxfId="59"/>
+    <tableColumn id="52" xr3:uid="{B46BAFBF-72C2-41B2-8ABE-6A9D05396E1F}" uniqueName="52" name="sicdesc" queryTableFieldId="52" dataDxfId="58"/>
+    <tableColumn id="71" xr3:uid="{EAD846D1-12BC-4906-8707-A3EF5B16F3E9}" uniqueName="71" name="dandbcompany_id" queryTableFieldId="71" dataDxfId="57"/>
+    <tableColumn id="72" xr3:uid="{5C47F162-D70C-419F-B3A4-D5D5C3400A64}" uniqueName="72" name="operatinghours_id" queryTableFieldId="72" dataDxfId="56"/>
+    <tableColumn id="73" xr3:uid="{B0C59782-55F6-4A79-B509-E3343D03FBD2}" uniqueName="73" name="customer_priority" queryTableFieldId="73" dataDxfId="55"/>
+    <tableColumn id="74" xr3:uid="{B1B91D2F-03F6-44B2-A306-8A91B3D7A305}" uniqueName="74" name="sla_category" queryTableFieldId="74" dataDxfId="54"/>
+    <tableColumn id="75" xr3:uid="{6890FF49-98A5-4836-BBFF-28A0C77245DB}" uniqueName="75" name="is_active" queryTableFieldId="75" dataDxfId="53"/>
+    <tableColumn id="76" xr3:uid="{2BCC13FC-4595-4FC0-911F-5FEC18EB791A}" uniqueName="76" name="number_of_locations" queryTableFieldId="76" dataDxfId="52"/>
+    <tableColumn id="77" xr3:uid="{91A75CC1-8848-4F23-8239-A4AD8DE443F4}" uniqueName="77" name="upsell_opportunity" queryTableFieldId="77" dataDxfId="51"/>
+    <tableColumn id="78" xr3:uid="{757E9B96-8A60-4517-826C-B0F3ED111926}" uniqueName="78" name="sla_serial_number" queryTableFieldId="78" dataDxfId="50"/>
+    <tableColumn id="79" xr3:uid="{8935DE4F-145B-4FFE-82A9-2E53ECDCD769}" uniqueName="79" name="date_sla_expiration" queryTableFieldId="79" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6347,65 +6361,65 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FB51AC17-2152-4AC9-AF55-FD13653048AA}" name="lead" displayName="lead" ref="A1:BH23" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:BH23" xr:uid="{FB51AC17-2152-4AC9-AF55-FD13653048AA}"/>
   <tableColumns count="60">
-    <tableColumn id="1" xr3:uid="{5AD830A8-B6D9-4C8A-A1BD-65877CF8165C}" uniqueName="1" name="lead_id" queryTableFieldId="1" dataDxfId="233"/>
+    <tableColumn id="1" xr3:uid="{5AD830A8-B6D9-4C8A-A1BD-65877CF8165C}" uniqueName="1" name="lead_id" queryTableFieldId="1" dataDxfId="48"/>
     <tableColumn id="2" xr3:uid="{05DAFA82-B566-47D7-AE2A-9BC89046A8C5}" uniqueName="2" name="isdeleted" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{644B6D03-F486-440D-905D-71F4B4A35EF7}" uniqueName="3" name="masterrecordid" queryTableFieldId="3" dataDxfId="232"/>
-    <tableColumn id="4" xr3:uid="{0C4406C3-E91F-44F9-BAAC-70DECE772F1A}" uniqueName="4" name="salutation" queryTableFieldId="4" dataDxfId="231"/>
-    <tableColumn id="5" xr3:uid="{73E5525F-E2C7-4B71-99B4-141B7FD65329}" uniqueName="5" name="firstname" queryTableFieldId="5" dataDxfId="230"/>
-    <tableColumn id="6" xr3:uid="{19CCC50C-94A7-4415-81FB-C739109ADD47}" uniqueName="6" name="lastname" queryTableFieldId="6" dataDxfId="229"/>
-    <tableColumn id="7" xr3:uid="{8F792120-D437-4D1E-8114-01EEF0748281}" uniqueName="7" name="title" queryTableFieldId="7" dataDxfId="228"/>
-    <tableColumn id="8" xr3:uid="{B80C329F-1DC2-453C-85FA-DFA5C971B4C2}" uniqueName="8" name="company" queryTableFieldId="8" dataDxfId="227"/>
-    <tableColumn id="9" xr3:uid="{52EF523A-154D-4E32-8DB5-C90BF6A73186}" uniqueName="9" name="street" queryTableFieldId="9" dataDxfId="226"/>
-    <tableColumn id="10" xr3:uid="{702EA58D-6021-43D6-A47E-EB70688E27F5}" uniqueName="10" name="city" queryTableFieldId="10" dataDxfId="225"/>
-    <tableColumn id="11" xr3:uid="{98B31EBF-D555-4143-BA7F-0398C33799A4}" uniqueName="11" name="state" queryTableFieldId="11" dataDxfId="224"/>
+    <tableColumn id="3" xr3:uid="{644B6D03-F486-440D-905D-71F4B4A35EF7}" uniqueName="3" name="masterrecordid" queryTableFieldId="3" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{0C4406C3-E91F-44F9-BAAC-70DECE772F1A}" uniqueName="4" name="salutation" queryTableFieldId="4" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{73E5525F-E2C7-4B71-99B4-141B7FD65329}" uniqueName="5" name="firstname" queryTableFieldId="5" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{19CCC50C-94A7-4415-81FB-C739109ADD47}" uniqueName="6" name="lastname" queryTableFieldId="6" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{8F792120-D437-4D1E-8114-01EEF0748281}" uniqueName="7" name="title" queryTableFieldId="7" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{B80C329F-1DC2-453C-85FA-DFA5C971B4C2}" uniqueName="8" name="company" queryTableFieldId="8" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{52EF523A-154D-4E32-8DB5-C90BF6A73186}" uniqueName="9" name="street" queryTableFieldId="9" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{702EA58D-6021-43D6-A47E-EB70688E27F5}" uniqueName="10" name="city" queryTableFieldId="10" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{98B31EBF-D555-4143-BA7F-0398C33799A4}" uniqueName="11" name="state" queryTableFieldId="11" dataDxfId="39"/>
     <tableColumn id="12" xr3:uid="{2940D532-56E3-4370-A4CB-184436960101}" uniqueName="12" name="postalcode" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{C5C8B06D-97F4-47C7-BD3F-3741EA620AAF}" uniqueName="13" name="country" queryTableFieldId="13" dataDxfId="223"/>
-    <tableColumn id="14" xr3:uid="{0D883F12-0BE7-472E-BB7D-849348ED7D6A}" uniqueName="14" name="latitude" queryTableFieldId="14" dataDxfId="222"/>
-    <tableColumn id="15" xr3:uid="{4FBAF4D4-0752-4E4D-92EE-9B9DED6FA865}" uniqueName="15" name="longitude" queryTableFieldId="15" dataDxfId="221"/>
-    <tableColumn id="16" xr3:uid="{E76510D9-4DAF-48FC-89CB-848E0B4922E0}" uniqueName="16" name="geocodeaccuracy" queryTableFieldId="16" dataDxfId="220"/>
-    <tableColumn id="17" xr3:uid="{1831976B-7417-43A8-9630-AEE2F3F96CCC}" uniqueName="17" name="phone" queryTableFieldId="17" dataDxfId="219"/>
-    <tableColumn id="18" xr3:uid="{FB4C1F1C-2173-4582-8768-5DEEAEA54BF0}" uniqueName="18" name="mobilephone" queryTableFieldId="18" dataDxfId="218"/>
-    <tableColumn id="19" xr3:uid="{DB53EBE0-F57A-46FA-ADF2-E09D536BF8A2}" uniqueName="19" name="fax" queryTableFieldId="19" dataDxfId="217"/>
-    <tableColumn id="20" xr3:uid="{E61418A3-7D6F-4B92-B8CE-ACF3F547F4CC}" uniqueName="20" name="email" queryTableFieldId="20" dataDxfId="216"/>
-    <tableColumn id="21" xr3:uid="{EAE8F066-5372-4557-83C1-41A0A257F689}" uniqueName="21" name="website" queryTableFieldId="21" dataDxfId="215"/>
-    <tableColumn id="22" xr3:uid="{A3C97D8C-0295-4E7F-9A9E-C71125879D0E}" uniqueName="22" name="description" queryTableFieldId="22" dataDxfId="214"/>
-    <tableColumn id="23" xr3:uid="{920509B8-23B4-4155-B43B-8E86C097B632}" uniqueName="23" name="leadsource" queryTableFieldId="23" dataDxfId="213"/>
-    <tableColumn id="24" xr3:uid="{066568BD-DCD0-43B6-85EC-EBC41A8AFA25}" uniqueName="24" name="status" queryTableFieldId="24" dataDxfId="212"/>
-    <tableColumn id="25" xr3:uid="{15770B91-7AE5-416F-A2FB-C30F94511844}" uniqueName="25" name="industry" queryTableFieldId="25" dataDxfId="211"/>
-    <tableColumn id="26" xr3:uid="{F519402F-6124-45A1-B2B9-B8F68C6CB500}" uniqueName="26" name="rating" queryTableFieldId="26" dataDxfId="210"/>
+    <tableColumn id="13" xr3:uid="{C5C8B06D-97F4-47C7-BD3F-3741EA620AAF}" uniqueName="13" name="country" queryTableFieldId="13" dataDxfId="38"/>
+    <tableColumn id="14" xr3:uid="{0D883F12-0BE7-472E-BB7D-849348ED7D6A}" uniqueName="14" name="latitude" queryTableFieldId="14" dataDxfId="37"/>
+    <tableColumn id="15" xr3:uid="{4FBAF4D4-0752-4E4D-92EE-9B9DED6FA865}" uniqueName="15" name="longitude" queryTableFieldId="15" dataDxfId="36"/>
+    <tableColumn id="16" xr3:uid="{E76510D9-4DAF-48FC-89CB-848E0B4922E0}" uniqueName="16" name="geocodeaccuracy" queryTableFieldId="16" dataDxfId="35"/>
+    <tableColumn id="17" xr3:uid="{1831976B-7417-43A8-9630-AEE2F3F96CCC}" uniqueName="17" name="phone" queryTableFieldId="17" dataDxfId="34"/>
+    <tableColumn id="18" xr3:uid="{FB4C1F1C-2173-4582-8768-5DEEAEA54BF0}" uniqueName="18" name="mobilephone" queryTableFieldId="18" dataDxfId="33"/>
+    <tableColumn id="19" xr3:uid="{DB53EBE0-F57A-46FA-ADF2-E09D536BF8A2}" uniqueName="19" name="fax" queryTableFieldId="19" dataDxfId="32"/>
+    <tableColumn id="20" xr3:uid="{E61418A3-7D6F-4B92-B8CE-ACF3F547F4CC}" uniqueName="20" name="email" queryTableFieldId="20" dataDxfId="31"/>
+    <tableColumn id="21" xr3:uid="{EAE8F066-5372-4557-83C1-41A0A257F689}" uniqueName="21" name="website" queryTableFieldId="21" dataDxfId="30"/>
+    <tableColumn id="22" xr3:uid="{A3C97D8C-0295-4E7F-9A9E-C71125879D0E}" uniqueName="22" name="description" queryTableFieldId="22" dataDxfId="29"/>
+    <tableColumn id="23" xr3:uid="{920509B8-23B4-4155-B43B-8E86C097B632}" uniqueName="23" name="leadsource" queryTableFieldId="23" dataDxfId="28"/>
+    <tableColumn id="24" xr3:uid="{066568BD-DCD0-43B6-85EC-EBC41A8AFA25}" uniqueName="24" name="status" queryTableFieldId="24" dataDxfId="27"/>
+    <tableColumn id="25" xr3:uid="{15770B91-7AE5-416F-A2FB-C30F94511844}" uniqueName="25" name="industry" queryTableFieldId="25" dataDxfId="26"/>
+    <tableColumn id="26" xr3:uid="{F519402F-6124-45A1-B2B9-B8F68C6CB500}" uniqueName="26" name="rating" queryTableFieldId="26" dataDxfId="25"/>
     <tableColumn id="27" xr3:uid="{5C55CE3F-4EE9-4C87-8558-1EF6ECDC3D19}" uniqueName="27" name="annualrevenue" queryTableFieldId="27"/>
     <tableColumn id="28" xr3:uid="{A5DA0AE2-787C-4FF2-A44E-A7D0F694F200}" uniqueName="28" name="numberofemployees" queryTableFieldId="28"/>
-    <tableColumn id="29" xr3:uid="{5A5157D6-40F8-404C-8C02-8F9A260CC2A1}" uniqueName="29" name="ownerid" queryTableFieldId="29" dataDxfId="209"/>
+    <tableColumn id="29" xr3:uid="{5A5157D6-40F8-404C-8C02-8F9A260CC2A1}" uniqueName="29" name="ownerid" queryTableFieldId="29" dataDxfId="24"/>
     <tableColumn id="30" xr3:uid="{9581BB10-EEE5-4387-954B-7793C0BA3638}" uniqueName="30" name="hasoptedoutofemail" queryTableFieldId="30"/>
     <tableColumn id="31" xr3:uid="{EA86264C-49A7-44A2-9491-E09EF2B5EDEB}" uniqueName="31" name="isconverted" queryTableFieldId="31"/>
-    <tableColumn id="32" xr3:uid="{0BD5A092-1FF4-449C-AE7A-9985067CCDB0}" uniqueName="32" name="converteddate" queryTableFieldId="32" dataDxfId="208"/>
-    <tableColumn id="33" xr3:uid="{6D2810F4-961C-485F-ACB4-BEDB671B4CC5}" uniqueName="33" name="convertedaccountid" queryTableFieldId="33" dataDxfId="207"/>
-    <tableColumn id="34" xr3:uid="{A631FB73-D0D3-4987-8970-3B6A276CD671}" uniqueName="34" name="convertedcontactid" queryTableFieldId="34" dataDxfId="206"/>
-    <tableColumn id="35" xr3:uid="{A5BA2FDC-435F-498B-B324-C78BDD9BBE52}" uniqueName="35" name="convertedopportunityid" queryTableFieldId="35" dataDxfId="205"/>
+    <tableColumn id="32" xr3:uid="{0BD5A092-1FF4-449C-AE7A-9985067CCDB0}" uniqueName="32" name="converteddate" queryTableFieldId="32" dataDxfId="23"/>
+    <tableColumn id="33" xr3:uid="{6D2810F4-961C-485F-ACB4-BEDB671B4CC5}" uniqueName="33" name="convertedaccountid" queryTableFieldId="33" dataDxfId="22"/>
+    <tableColumn id="34" xr3:uid="{A631FB73-D0D3-4987-8970-3B6A276CD671}" uniqueName="34" name="convertedcontactid" queryTableFieldId="34" dataDxfId="21"/>
+    <tableColumn id="35" xr3:uid="{A5BA2FDC-435F-498B-B324-C78BDD9BBE52}" uniqueName="35" name="convertedopportunityid" queryTableFieldId="35" dataDxfId="20"/>
     <tableColumn id="36" xr3:uid="{B303DE65-A2D7-4BA7-8E52-B220208C71F3}" uniqueName="36" name="isunreadbyowner" queryTableFieldId="36"/>
-    <tableColumn id="37" xr3:uid="{95B3A308-D846-448A-8AFF-F17CFF67D607}" uniqueName="37" name="createddate" queryTableFieldId="37" dataDxfId="204"/>
-    <tableColumn id="38" xr3:uid="{DD5DFA11-B642-4FC2-90AD-BCD52DB5C313}" uniqueName="38" name="createdbyid" queryTableFieldId="38" dataDxfId="203"/>
-    <tableColumn id="39" xr3:uid="{D7A7D9B0-7539-466F-B17D-AF7551243DA0}" uniqueName="39" name="lastmodifieddate" queryTableFieldId="39" dataDxfId="202"/>
-    <tableColumn id="40" xr3:uid="{2470F725-DA6B-40BD-B461-4E308BC9CBA1}" uniqueName="40" name="lastmodifiedbyid" queryTableFieldId="40" dataDxfId="201"/>
-    <tableColumn id="41" xr3:uid="{257C5893-7926-41C3-BF8B-976326BF9CB6}" uniqueName="41" name="systemmodstamp" queryTableFieldId="41" dataDxfId="200"/>
-    <tableColumn id="42" xr3:uid="{62FFC37A-7D71-489A-A6AB-0F4519A79490}" uniqueName="42" name="lastactivitydate" queryTableFieldId="42" dataDxfId="199"/>
+    <tableColumn id="37" xr3:uid="{95B3A308-D846-448A-8AFF-F17CFF67D607}" uniqueName="37" name="createddate" queryTableFieldId="37" dataDxfId="19"/>
+    <tableColumn id="38" xr3:uid="{DD5DFA11-B642-4FC2-90AD-BCD52DB5C313}" uniqueName="38" name="createdbyid" queryTableFieldId="38" dataDxfId="18"/>
+    <tableColumn id="39" xr3:uid="{D7A7D9B0-7539-466F-B17D-AF7551243DA0}" uniqueName="39" name="lastmodifieddate" queryTableFieldId="39" dataDxfId="17"/>
+    <tableColumn id="40" xr3:uid="{2470F725-DA6B-40BD-B461-4E308BC9CBA1}" uniqueName="40" name="lastmodifiedbyid" queryTableFieldId="40" dataDxfId="16"/>
+    <tableColumn id="41" xr3:uid="{257C5893-7926-41C3-BF8B-976326BF9CB6}" uniqueName="41" name="systemmodstamp" queryTableFieldId="41" dataDxfId="15"/>
+    <tableColumn id="42" xr3:uid="{62FFC37A-7D71-489A-A6AB-0F4519A79490}" uniqueName="42" name="lastactivitydate" queryTableFieldId="42" dataDxfId="14"/>
     <tableColumn id="43" xr3:uid="{AB76BF37-0B34-4EA6-BA8E-A33BB9472FD1}" uniqueName="43" name="donotcall" queryTableFieldId="43"/>
     <tableColumn id="44" xr3:uid="{C744E885-7DC1-4B94-8074-4962125A842B}" uniqueName="44" name="hasoptedoutoffax" queryTableFieldId="44"/>
-    <tableColumn id="45" xr3:uid="{EF403C16-F45A-4565-B6B3-B4E1BF2D03B4}" uniqueName="45" name="lasttransferdate" queryTableFieldId="45" dataDxfId="198"/>
-    <tableColumn id="46" xr3:uid="{4298B2C1-7576-42A8-8BA8-2808F4850919}" uniqueName="46" name="jigsaw" queryTableFieldId="46" dataDxfId="197"/>
-    <tableColumn id="47" xr3:uid="{0AE6B25B-3AA1-4667-A346-DB076248681C}" uniqueName="47" name="jigsawcontactid" queryTableFieldId="47" dataDxfId="196"/>
-    <tableColumn id="48" xr3:uid="{F8A92241-E776-4438-B575-061343DABDAD}" uniqueName="48" name="cleanstatus" queryTableFieldId="48" dataDxfId="195"/>
-    <tableColumn id="49" xr3:uid="{8BAFC4D7-86FB-40BF-A67D-A1B9D82C6BF5}" uniqueName="49" name="companydunsnumber" queryTableFieldId="49" dataDxfId="194"/>
-    <tableColumn id="50" xr3:uid="{6F992FC2-2C70-4FAD-A9E1-DABED1FD092C}" uniqueName="50" name="dandbcompanyid" queryTableFieldId="50" dataDxfId="193"/>
-    <tableColumn id="51" xr3:uid="{3E1C48E4-BAA2-4698-A1FA-68B5F76F815D}" uniqueName="51" name="emailbouncedreason" queryTableFieldId="51" dataDxfId="192"/>
-    <tableColumn id="52" xr3:uid="{EC813392-831D-4DA7-A44D-7CE392618F99}" uniqueName="52" name="emailbounceddate" queryTableFieldId="52" dataDxfId="191"/>
-    <tableColumn id="53" xr3:uid="{E69E7285-4128-4C74-9C87-FBCE8371A6A5}" uniqueName="53" name="individualid" queryTableFieldId="53" dataDxfId="190"/>
-    <tableColumn id="54" xr3:uid="{52F30D4C-3248-4CCD-A0B8-CFCF27AF34DD}" uniqueName="54" name="pronouns" queryTableFieldId="54" dataDxfId="189"/>
-    <tableColumn id="55" xr3:uid="{9A73C936-915F-4A3C-BF71-1DF031B668EC}" uniqueName="55" name="genderidentity" queryTableFieldId="55" dataDxfId="188"/>
+    <tableColumn id="45" xr3:uid="{EF403C16-F45A-4565-B6B3-B4E1BF2D03B4}" uniqueName="45" name="lasttransferdate" queryTableFieldId="45" dataDxfId="13"/>
+    <tableColumn id="46" xr3:uid="{4298B2C1-7576-42A8-8BA8-2808F4850919}" uniqueName="46" name="jigsaw" queryTableFieldId="46" dataDxfId="12"/>
+    <tableColumn id="47" xr3:uid="{0AE6B25B-3AA1-4667-A346-DB076248681C}" uniqueName="47" name="jigsawcontactid" queryTableFieldId="47" dataDxfId="11"/>
+    <tableColumn id="48" xr3:uid="{F8A92241-E776-4438-B575-061343DABDAD}" uniqueName="48" name="cleanstatus" queryTableFieldId="48" dataDxfId="10"/>
+    <tableColumn id="49" xr3:uid="{8BAFC4D7-86FB-40BF-A67D-A1B9D82C6BF5}" uniqueName="49" name="companydunsnumber" queryTableFieldId="49" dataDxfId="9"/>
+    <tableColumn id="50" xr3:uid="{6F992FC2-2C70-4FAD-A9E1-DABED1FD092C}" uniqueName="50" name="dandbcompanyid" queryTableFieldId="50" dataDxfId="8"/>
+    <tableColumn id="51" xr3:uid="{3E1C48E4-BAA2-4698-A1FA-68B5F76F815D}" uniqueName="51" name="emailbouncedreason" queryTableFieldId="51" dataDxfId="7"/>
+    <tableColumn id="52" xr3:uid="{EC813392-831D-4DA7-A44D-7CE392618F99}" uniqueName="52" name="emailbounceddate" queryTableFieldId="52" dataDxfId="6"/>
+    <tableColumn id="53" xr3:uid="{E69E7285-4128-4C74-9C87-FBCE8371A6A5}" uniqueName="53" name="individualid" queryTableFieldId="53" dataDxfId="5"/>
+    <tableColumn id="54" xr3:uid="{52F30D4C-3248-4CCD-A0B8-CFCF27AF34DD}" uniqueName="54" name="pronouns" queryTableFieldId="54" dataDxfId="4"/>
+    <tableColumn id="55" xr3:uid="{9A73C936-915F-4A3C-BF71-1DF031B668EC}" uniqueName="55" name="genderidentity" queryTableFieldId="55" dataDxfId="3"/>
     <tableColumn id="56" xr3:uid="{74ADE78D-F26C-4795-957B-32C8A1FFA8E0}" uniqueName="56" name="siccode__c" queryTableFieldId="56"/>
-    <tableColumn id="57" xr3:uid="{0F35BC9A-AE0B-4E6D-AC4F-CF6BA57C87A6}" uniqueName="57" name="productinterest__c" queryTableFieldId="57" dataDxfId="187"/>
-    <tableColumn id="58" xr3:uid="{222EF52C-C21A-43BB-9BB1-8AC1B37C6C25}" uniqueName="58" name="primary__c" queryTableFieldId="58" dataDxfId="186"/>
-    <tableColumn id="59" xr3:uid="{DD082171-323F-4D14-B1DF-7FEA1E73C245}" uniqueName="59" name="currentgenerators__c" queryTableFieldId="59" dataDxfId="185"/>
+    <tableColumn id="57" xr3:uid="{0F35BC9A-AE0B-4E6D-AC4F-CF6BA57C87A6}" uniqueName="57" name="productinterest__c" queryTableFieldId="57" dataDxfId="2"/>
+    <tableColumn id="58" xr3:uid="{222EF52C-C21A-43BB-9BB1-8AC1B37C6C25}" uniqueName="58" name="primary__c" queryTableFieldId="58" dataDxfId="1"/>
+    <tableColumn id="59" xr3:uid="{DD082171-323F-4D14-B1DF-7FEA1E73C245}" uniqueName="59" name="currentgenerators__c" queryTableFieldId="59" dataDxfId="0"/>
     <tableColumn id="60" xr3:uid="{0CD5AD90-10C2-45AA-BFBB-C364CBB60752}" uniqueName="60" name="numberoflocations__c" queryTableFieldId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6613,7 +6627,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D33E4DE8-9D2A-49E2-9489-B4C8E541D362}" name="opportunity" displayName="opportunity" ref="A1:AQ32" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:AQ32" xr:uid="{D33E4DE8-9D2A-49E2-9489-B4C8E541D362}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AQ32">
-    <sortCondition ref="C1:C32"/>
+    <sortCondition ref="H1:H32"/>
   </sortState>
   <tableColumns count="43">
     <tableColumn id="1" xr3:uid="{CDB7D225-427C-4E6C-B159-7DC601B596AE}" uniqueName="1" name="opportunity_id" queryTableFieldId="1" dataDxfId="264"/>
@@ -6668,21 +6682,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3117E5AD-954B-4557-AF77-7607AD74E0CF}" name="campaign" displayName="campaign" ref="A1:AQ5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:AQ5" xr:uid="{3117E5AD-954B-4557-AF77-7607AD74E0CF}"/>
   <tableColumns count="43">
-    <tableColumn id="1" xr3:uid="{4CFDBED3-121B-4DA0-966F-899709E0E45D}" uniqueName="1" name="campaign_id" queryTableFieldId="1" dataDxfId="184"/>
+    <tableColumn id="1" xr3:uid="{4CFDBED3-121B-4DA0-966F-899709E0E45D}" uniqueName="1" name="campaign_id" queryTableFieldId="1" dataDxfId="233"/>
     <tableColumn id="2" xr3:uid="{3634E7C2-66FF-4C4B-BA5C-A2F6E32995D4}" uniqueName="2" name="isdeleted" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{0A8368FD-D0E5-4FF0-BDDB-98BEE644574B}" uniqueName="3" name="name" queryTableFieldId="3" dataDxfId="183"/>
-    <tableColumn id="4" xr3:uid="{DFACACBB-2896-419A-85AA-B047B20E0F15}" uniqueName="4" name="parentid" queryTableFieldId="4" dataDxfId="182"/>
-    <tableColumn id="5" xr3:uid="{E8E9A338-0889-4820-AC3F-BC1DC4EEEE8A}" uniqueName="5" name="type" queryTableFieldId="5" dataDxfId="181"/>
-    <tableColumn id="6" xr3:uid="{4DA8C6D1-64B3-480E-B3F1-FF545A828BD0}" uniqueName="6" name="status" queryTableFieldId="6" dataDxfId="180"/>
-    <tableColumn id="7" xr3:uid="{30D56504-3569-4CFF-9464-174ADC8E7193}" uniqueName="7" name="startdate" queryTableFieldId="7" dataDxfId="179"/>
-    <tableColumn id="8" xr3:uid="{48830888-4E8F-430E-B2CA-9FC0FA7F8569}" uniqueName="8" name="enddate" queryTableFieldId="8" dataDxfId="178"/>
+    <tableColumn id="3" xr3:uid="{0A8368FD-D0E5-4FF0-BDDB-98BEE644574B}" uniqueName="3" name="name" queryTableFieldId="3" dataDxfId="232"/>
+    <tableColumn id="4" xr3:uid="{DFACACBB-2896-419A-85AA-B047B20E0F15}" uniqueName="4" name="parentid" queryTableFieldId="4" dataDxfId="231"/>
+    <tableColumn id="5" xr3:uid="{E8E9A338-0889-4820-AC3F-BC1DC4EEEE8A}" uniqueName="5" name="type" queryTableFieldId="5" dataDxfId="230"/>
+    <tableColumn id="6" xr3:uid="{4DA8C6D1-64B3-480E-B3F1-FF545A828BD0}" uniqueName="6" name="status" queryTableFieldId="6" dataDxfId="229"/>
+    <tableColumn id="7" xr3:uid="{30D56504-3569-4CFF-9464-174ADC8E7193}" uniqueName="7" name="startdate" queryTableFieldId="7" dataDxfId="228"/>
+    <tableColumn id="8" xr3:uid="{48830888-4E8F-430E-B2CA-9FC0FA7F8569}" uniqueName="8" name="enddate" queryTableFieldId="8" dataDxfId="227"/>
     <tableColumn id="9" xr3:uid="{E8A94BBB-A9C1-467C-B48E-52FF6E63B2C2}" uniqueName="9" name="expectedrevenue" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{4CBB8532-F9CD-4C34-A58D-CDF4AF2BF792}" uniqueName="10" name="budgetedcost" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{9F2BB1D4-0DAE-497C-BA3F-0F91A82CB900}" uniqueName="11" name="actualcost" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{8D7E9084-E55B-4AED-A54C-661BF95B3BEA}" uniqueName="12" name="expectedresponse" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{09F6CFD6-C036-4335-A278-4AB24CD70EF2}" uniqueName="13" name="numbersent" queryTableFieldId="13"/>
     <tableColumn id="14" xr3:uid="{398D122C-43D1-4A95-B7D9-AF4D23AE316C}" uniqueName="14" name="isactive" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{BBEFBACC-4C88-4B07-A14D-FF85BAD9B22B}" uniqueName="15" name="description" queryTableFieldId="15" dataDxfId="177"/>
+    <tableColumn id="15" xr3:uid="{BBEFBACC-4C88-4B07-A14D-FF85BAD9B22B}" uniqueName="15" name="description" queryTableFieldId="15" dataDxfId="226"/>
     <tableColumn id="16" xr3:uid="{B5296D1F-5C86-4732-B020-525D37C042EF}" uniqueName="16" name="numberofleads" queryTableFieldId="16"/>
     <tableColumn id="17" xr3:uid="{B0E7BFC0-5AC2-4439-99B3-686CB9825CCE}" uniqueName="17" name="numberofconvertedleads" queryTableFieldId="17"/>
     <tableColumn id="18" xr3:uid="{6ECFE8A8-5133-43D5-9F3B-617C704EC163}" uniqueName="18" name="numberofcontacts" queryTableFieldId="18"/>
@@ -6703,14 +6717,14 @@
     <tableColumn id="33" xr3:uid="{C8A8F01A-F7F3-4AE6-A719-795C1206A9C8}" uniqueName="33" name="hierarchyexpectedrevenue" queryTableFieldId="33"/>
     <tableColumn id="34" xr3:uid="{7F365E55-B9C9-4B6E-9354-39D8CBA7958C}" uniqueName="34" name="hierarchybudgetedcost" queryTableFieldId="34"/>
     <tableColumn id="35" xr3:uid="{67208FF3-E722-4CF4-8DB2-F03FAD63044B}" uniqueName="35" name="hierarchyactualcost" queryTableFieldId="35"/>
-    <tableColumn id="36" xr3:uid="{B1C1D111-AB18-4820-9EFD-EB7DA5BC319E}" uniqueName="36" name="ownerid" queryTableFieldId="36" dataDxfId="176"/>
-    <tableColumn id="37" xr3:uid="{AAF2B031-4525-4844-9AD1-7E933D16249F}" uniqueName="37" name="createddate" queryTableFieldId="37" dataDxfId="175"/>
-    <tableColumn id="38" xr3:uid="{C14A21B2-0CC8-489E-B831-E7C65865F2DD}" uniqueName="38" name="createdbyid" queryTableFieldId="38" dataDxfId="174"/>
-    <tableColumn id="39" xr3:uid="{D91AE7C8-69A2-4696-ACBE-B956C45AC81E}" uniqueName="39" name="lastmodifieddate" queryTableFieldId="39" dataDxfId="173"/>
-    <tableColumn id="40" xr3:uid="{623424D0-C637-4436-B8E1-5DB8EF2BD780}" uniqueName="40" name="lastmodifiedbyid" queryTableFieldId="40" dataDxfId="172"/>
-    <tableColumn id="41" xr3:uid="{97BF4C36-56B1-4F7E-A40B-57080CB6F982}" uniqueName="41" name="systemmodstamp" queryTableFieldId="41" dataDxfId="171"/>
-    <tableColumn id="42" xr3:uid="{ACA04D35-AB98-47EA-B0BD-E044F1BF1756}" uniqueName="42" name="lastactivitydate" queryTableFieldId="42" dataDxfId="170"/>
-    <tableColumn id="43" xr3:uid="{02DA27F4-259D-4912-BE88-F6CD6271DB40}" uniqueName="43" name="campaignmemberrecordtypeid" queryTableFieldId="43" dataDxfId="169"/>
+    <tableColumn id="36" xr3:uid="{B1C1D111-AB18-4820-9EFD-EB7DA5BC319E}" uniqueName="36" name="ownerid" queryTableFieldId="36" dataDxfId="225"/>
+    <tableColumn id="37" xr3:uid="{AAF2B031-4525-4844-9AD1-7E933D16249F}" uniqueName="37" name="createddate" queryTableFieldId="37" dataDxfId="224"/>
+    <tableColumn id="38" xr3:uid="{C14A21B2-0CC8-489E-B831-E7C65865F2DD}" uniqueName="38" name="createdbyid" queryTableFieldId="38" dataDxfId="223"/>
+    <tableColumn id="39" xr3:uid="{D91AE7C8-69A2-4696-ACBE-B956C45AC81E}" uniqueName="39" name="lastmodifieddate" queryTableFieldId="39" dataDxfId="222"/>
+    <tableColumn id="40" xr3:uid="{623424D0-C637-4436-B8E1-5DB8EF2BD780}" uniqueName="40" name="lastmodifiedbyid" queryTableFieldId="40" dataDxfId="221"/>
+    <tableColumn id="41" xr3:uid="{97BF4C36-56B1-4F7E-A40B-57080CB6F982}" uniqueName="41" name="systemmodstamp" queryTableFieldId="41" dataDxfId="220"/>
+    <tableColumn id="42" xr3:uid="{ACA04D35-AB98-47EA-B0BD-E044F1BF1756}" uniqueName="42" name="lastactivitydate" queryTableFieldId="42" dataDxfId="219"/>
+    <tableColumn id="43" xr3:uid="{02DA27F4-259D-4912-BE88-F6CD6271DB40}" uniqueName="43" name="campaignmemberrecordtypeid" queryTableFieldId="43" dataDxfId="218"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6723,22 +6737,22 @@
     <sortCondition ref="D1:D11"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{56B8B99A-46A7-4F03-BB57-270E1F5EAF0F}" uniqueName="1" name="solution_id" queryTableFieldId="1" dataDxfId="168"/>
+    <tableColumn id="1" xr3:uid="{56B8B99A-46A7-4F03-BB57-270E1F5EAF0F}" uniqueName="1" name="solution_id" queryTableFieldId="1" dataDxfId="217"/>
     <tableColumn id="2" xr3:uid="{99067B58-26FC-4A07-A1B2-4C756CFA3FE5}" uniqueName="2" name="isdeleted" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{0E48D017-6164-4236-AF93-5B2A9CF6E84C}" uniqueName="3" name="solutionnumber" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{491F6230-A85C-46C5-8350-012D966DF777}" uniqueName="4" name="solutionname" queryTableFieldId="4" dataDxfId="167"/>
+    <tableColumn id="4" xr3:uid="{491F6230-A85C-46C5-8350-012D966DF777}" uniqueName="4" name="solutionname" queryTableFieldId="4" dataDxfId="216"/>
     <tableColumn id="5" xr3:uid="{605D97C2-EE98-4524-A19F-934A8B03B42B}" uniqueName="5" name="ispublished" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{BE1231AC-C3AD-4565-A384-DA86DA4749B1}" uniqueName="6" name="ispublishedinpublickb" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{2D28A4B4-CEE2-4C51-9E28-3B22ECA3C3CA}" uniqueName="7" name="status" queryTableFieldId="7" dataDxfId="166"/>
+    <tableColumn id="7" xr3:uid="{2D28A4B4-CEE2-4C51-9E28-3B22ECA3C3CA}" uniqueName="7" name="status" queryTableFieldId="7" dataDxfId="215"/>
     <tableColumn id="8" xr3:uid="{2F37A328-B76E-4B1D-9E49-B9CAB1033328}" uniqueName="8" name="isreviewed" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{83CE0AA5-330A-4984-9890-5CBE86FC65BB}" uniqueName="9" name="solutionnote" queryTableFieldId="9" dataDxfId="165"/>
-    <tableColumn id="10" xr3:uid="{9A7D6C6B-F9D4-4E4A-8EC6-4AB7A2AC15BF}" uniqueName="10" name="caseid" queryTableFieldId="10" dataDxfId="164"/>
-    <tableColumn id="11" xr3:uid="{37C17AB3-D00B-420A-B076-D16A62A8F2C1}" uniqueName="11" name="ownerid" queryTableFieldId="11" dataDxfId="163"/>
-    <tableColumn id="12" xr3:uid="{E7CA4726-F33A-43BE-A0AE-89D295F867EB}" uniqueName="12" name="createddate" queryTableFieldId="12" dataDxfId="162"/>
-    <tableColumn id="13" xr3:uid="{F0DCB26F-6C16-4AA3-BD24-EFCA36D60F48}" uniqueName="13" name="createdbyid" queryTableFieldId="13" dataDxfId="161"/>
-    <tableColumn id="14" xr3:uid="{26D1E853-0BE4-425F-8FF7-589DCDA85F4B}" uniqueName="14" name="lastmodifieddate" queryTableFieldId="14" dataDxfId="160"/>
-    <tableColumn id="15" xr3:uid="{AE24165A-00D9-41C4-A456-0C17E206A5C7}" uniqueName="15" name="lastmodifiedbyid" queryTableFieldId="15" dataDxfId="159"/>
-    <tableColumn id="16" xr3:uid="{B91FB336-B156-428A-8301-A5375BE965BB}" uniqueName="16" name="systemmodstamp" queryTableFieldId="16" dataDxfId="158"/>
+    <tableColumn id="9" xr3:uid="{83CE0AA5-330A-4984-9890-5CBE86FC65BB}" uniqueName="9" name="solutionnote" queryTableFieldId="9" dataDxfId="214"/>
+    <tableColumn id="10" xr3:uid="{9A7D6C6B-F9D4-4E4A-8EC6-4AB7A2AC15BF}" uniqueName="10" name="caseid" queryTableFieldId="10" dataDxfId="213"/>
+    <tableColumn id="11" xr3:uid="{37C17AB3-D00B-420A-B076-D16A62A8F2C1}" uniqueName="11" name="ownerid" queryTableFieldId="11" dataDxfId="212"/>
+    <tableColumn id="12" xr3:uid="{E7CA4726-F33A-43BE-A0AE-89D295F867EB}" uniqueName="12" name="createddate" queryTableFieldId="12" dataDxfId="211"/>
+    <tableColumn id="13" xr3:uid="{F0DCB26F-6C16-4AA3-BD24-EFCA36D60F48}" uniqueName="13" name="createdbyid" queryTableFieldId="13" dataDxfId="210"/>
+    <tableColumn id="14" xr3:uid="{26D1E853-0BE4-425F-8FF7-589DCDA85F4B}" uniqueName="14" name="lastmodifieddate" queryTableFieldId="14" dataDxfId="209"/>
+    <tableColumn id="15" xr3:uid="{AE24165A-00D9-41C4-A456-0C17E206A5C7}" uniqueName="15" name="lastmodifiedbyid" queryTableFieldId="15" dataDxfId="208"/>
+    <tableColumn id="16" xr3:uid="{B91FB336-B156-428A-8301-A5375BE965BB}" uniqueName="16" name="systemmodstamp" queryTableFieldId="16" dataDxfId="207"/>
     <tableColumn id="17" xr3:uid="{98A2D411-0CFF-41EF-AAF3-DD99AA0CCF6A}" uniqueName="17" name="timesused" queryTableFieldId="17"/>
     <tableColumn id="18" xr3:uid="{56D8B26B-E451-49F9-9C69-5331736ACEE8}" uniqueName="18" name="ishtml" queryTableFieldId="18"/>
   </tableColumns>
@@ -7067,27 +7081,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1201</v>
       </c>
@@ -7137,7 +7151,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1213</v>
       </c>
@@ -7187,7 +7201,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1216</v>
       </c>
@@ -7237,7 +7251,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1218</v>
       </c>
@@ -7287,7 +7301,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1220</v>
       </c>
@@ -7337,7 +7351,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1222</v>
       </c>
@@ -7387,7 +7401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1224</v>
       </c>
@@ -7437,7 +7451,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1226</v>
       </c>
@@ -7487,7 +7501,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1228</v>
       </c>
@@ -7537,7 +7551,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1229</v>
       </c>
@@ -7587,7 +7601,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1231</v>
       </c>
@@ -7637,7 +7651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1233</v>
       </c>
@@ -7687,7 +7701,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1235</v>
       </c>
@@ -7737,7 +7751,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1237</v>
       </c>
@@ -7787,7 +7801,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1239</v>
       </c>
@@ -7837,7 +7851,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1241</v>
       </c>
@@ -7887,7 +7901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1243</v>
       </c>
@@ -7937,7 +7951,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1245</v>
       </c>
@@ -7987,7 +8001,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1247</v>
       </c>
@@ -8051,20 +8065,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>367</v>
       </c>
@@ -8093,7 +8107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>371</v>
       </c>
@@ -8122,7 +8136,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>370</v>
       </c>
@@ -8151,7 +8165,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>372</v>
       </c>
@@ -8180,7 +8194,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>373</v>
       </c>
@@ -8209,7 +8223,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>374</v>
       </c>
@@ -8238,7 +8252,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>375</v>
       </c>
@@ -8267,7 +8281,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>376</v>
       </c>
@@ -8296,7 +8310,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>377</v>
       </c>
@@ -8325,7 +8339,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>378</v>
       </c>
@@ -8354,7 +8368,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>379</v>
       </c>
@@ -8383,7 +8397,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>380</v>
       </c>
@@ -8412,7 +8426,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>381</v>
       </c>
@@ -8441,7 +8455,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>382</v>
       </c>
@@ -8470,7 +8484,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>383</v>
       </c>
@@ -8499,7 +8513,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>384</v>
       </c>
@@ -8528,7 +8542,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>385</v>
       </c>
@@ -8557,7 +8571,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>386</v>
       </c>
@@ -8586,7 +8600,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>387</v>
       </c>
@@ -8615,7 +8629,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>388</v>
       </c>
@@ -8644,7 +8658,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>389</v>
       </c>
@@ -8673,7 +8687,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>390</v>
       </c>
@@ -8702,7 +8716,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>392</v>
       </c>
@@ -8731,7 +8745,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>393</v>
       </c>
@@ -8760,7 +8774,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>394</v>
       </c>
@@ -8789,7 +8803,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>391</v>
       </c>
@@ -8818,7 +8832,7 @@
         <v>45227.864872685182</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>395</v>
       </c>
@@ -8859,55 +8873,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5660EAD4-D328-4425-96CC-8CE3A51A470C}">
   <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="56.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="19" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="13" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>247</v>
       </c>
@@ -9038,7 +9052,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>348</v>
       </c>
@@ -9167,7 +9181,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>319</v>
       </c>
@@ -9293,7 +9307,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>340</v>
       </c>
@@ -9419,7 +9433,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>362</v>
       </c>
@@ -9546,7 +9560,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>299</v>
       </c>
@@ -9672,7 +9686,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>360</v>
       </c>
@@ -9801,7 +9815,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -9930,7 +9944,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>328</v>
       </c>
@@ -10059,7 +10073,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>342</v>
       </c>
@@ -10188,7 +10202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>309</v>
       </c>
@@ -10317,7 +10331,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>356</v>
       </c>
@@ -10446,7 +10460,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>303</v>
       </c>
@@ -10575,7 +10589,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>326</v>
       </c>
@@ -10704,7 +10718,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>344</v>
       </c>
@@ -10831,7 +10845,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>321</v>
       </c>
@@ -10960,7 +10974,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>365</v>
       </c>
@@ -11089,7 +11103,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>278</v>
       </c>
@@ -11220,7 +11234,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>354</v>
       </c>
@@ -11349,7 +11363,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>334</v>
       </c>
@@ -11478,7 +11492,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>292</v>
       </c>
@@ -11602,7 +11616,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>345</v>
       </c>
@@ -11731,7 +11745,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>358</v>
       </c>
@@ -11860,7 +11874,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>287</v>
       </c>
@@ -11989,7 +12003,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>337</v>
       </c>
@@ -12118,7 +12132,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>313</v>
       </c>
@@ -12247,7 +12261,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>350</v>
       </c>
@@ -12389,73 +12403,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2172F880-4B7D-4663-A8E0-EB5FC7303CEB}">
   <dimension ref="A1:BG21"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -12634,7 +12648,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>288</v>
       </c>
@@ -12807,7 +12821,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>346</v>
       </c>
@@ -12980,7 +12994,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>351</v>
       </c>
@@ -13154,7 +13168,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>462</v>
       </c>
@@ -13331,7 +13345,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>471</v>
       </c>
@@ -13508,7 +13522,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>314</v>
       </c>
@@ -13681,7 +13695,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>338</v>
       </c>
@@ -13854,7 +13868,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>293</v>
       </c>
@@ -14027,7 +14041,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>363</v>
       </c>
@@ -14200,9 +14214,9 @@
         <v>449</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -14211,16 +14225,16 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="F11" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="G11" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="H11" t="s">
         <v>55</v>
@@ -14244,7 +14258,7 @@
         <v>55</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="Q11" t="s">
         <v>55</v>
@@ -14265,13 +14279,13 @@
         <v>55</v>
       </c>
       <c r="X11" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="Z11" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="AA11" t="s">
         <v>55</v>
@@ -14280,28 +14294,28 @@
         <v>55</v>
       </c>
       <c r="AC11" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="AD11" t="s">
         <v>55</v>
       </c>
       <c r="AE11" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="AF11" t="s">
-        <v>477</v>
+        <v>536</v>
       </c>
       <c r="AG11" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="AH11" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="AI11" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="AJ11" s="1">
-        <v>14870</v>
+        <v>20238</v>
       </c>
       <c r="AK11" t="s">
         <v>55</v>
@@ -14367,15 +14381,15 @@
         <v>55</v>
       </c>
       <c r="BF11" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="BG11" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -14384,16 +14398,16 @@
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
         <v>450</v>
       </c>
       <c r="F12" t="s">
-        <v>517</v>
+        <v>561</v>
       </c>
       <c r="G12" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="H12" t="s">
         <v>55</v>
@@ -14417,7 +14431,7 @@
         <v>55</v>
       </c>
       <c r="P12" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="Q12" t="s">
         <v>55</v>
@@ -14438,13 +14452,13 @@
         <v>55</v>
       </c>
       <c r="X12" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Y12" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="Z12" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
       <c r="AA12" t="s">
         <v>55</v>
@@ -14453,28 +14467,28 @@
         <v>55</v>
       </c>
       <c r="AC12" t="s">
-        <v>55</v>
+        <v>565</v>
       </c>
       <c r="AD12" t="s">
         <v>55</v>
       </c>
       <c r="AE12" t="s">
-        <v>521</v>
+        <v>566</v>
       </c>
       <c r="AF12" t="s">
-        <v>522</v>
+        <v>455</v>
       </c>
       <c r="AG12" t="s">
-        <v>523</v>
+        <v>456</v>
       </c>
       <c r="AH12" t="s">
-        <v>55</v>
+        <v>567</v>
       </c>
       <c r="AI12" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="AJ12" s="1">
-        <v>19004</v>
+        <v>13644</v>
       </c>
       <c r="AK12" t="s">
         <v>55</v>
@@ -14540,15 +14554,15 @@
         <v>55</v>
       </c>
       <c r="BF12" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="BG12" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -14557,16 +14571,16 @@
         <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E13" t="s">
         <v>440</v>
       </c>
       <c r="F13" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="G13" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="H13" t="s">
         <v>55</v>
@@ -14590,7 +14604,7 @@
         <v>55</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="Q13" t="s">
         <v>55</v>
@@ -14611,13 +14625,13 @@
         <v>55</v>
       </c>
       <c r="X13" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Y13" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="Z13" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="AA13" t="s">
         <v>55</v>
@@ -14626,28 +14640,28 @@
         <v>55</v>
       </c>
       <c r="AC13" t="s">
-        <v>55</v>
+        <v>512</v>
       </c>
       <c r="AD13" t="s">
         <v>55</v>
       </c>
       <c r="AE13" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="AF13" t="s">
-        <v>528</v>
+        <v>477</v>
       </c>
       <c r="AG13" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="AH13" t="s">
-        <v>55</v>
+        <v>515</v>
       </c>
       <c r="AI13" t="s">
         <v>516</v>
       </c>
       <c r="AJ13" s="1">
-        <v>17499</v>
+        <v>14870</v>
       </c>
       <c r="AK13" t="s">
         <v>55</v>
@@ -14719,9 +14733,9 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>530</v>
+        <v>307</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -14730,16 +14744,16 @@
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
         <v>450</v>
       </c>
       <c r="F14" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="G14" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="H14" t="s">
         <v>55</v>
@@ -14763,7 +14777,7 @@
         <v>55</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>519</v>
       </c>
       <c r="Q14" t="s">
         <v>55</v>
@@ -14784,13 +14798,13 @@
         <v>55</v>
       </c>
       <c r="X14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="Z14" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="AA14" t="s">
         <v>55</v>
@@ -14799,28 +14813,28 @@
         <v>55</v>
       </c>
       <c r="AC14" t="s">
-        <v>534</v>
+        <v>55</v>
       </c>
       <c r="AD14" t="s">
         <v>55</v>
       </c>
       <c r="AE14" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="AF14" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="AG14" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="AH14" t="s">
-        <v>538</v>
+        <v>55</v>
       </c>
       <c r="AI14" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="AJ14" s="1">
-        <v>20238</v>
+        <v>19004</v>
       </c>
       <c r="AK14" t="s">
         <v>55</v>
@@ -14892,9 +14906,9 @@
         <v>449</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -14903,16 +14917,16 @@
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E15" t="s">
         <v>440</v>
       </c>
       <c r="F15" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="G15" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="H15" t="s">
         <v>55</v>
@@ -14936,7 +14950,7 @@
         <v>55</v>
       </c>
       <c r="P15" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="Q15" t="s">
         <v>55</v>
@@ -14957,13 +14971,13 @@
         <v>55</v>
       </c>
       <c r="X15" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="Y15" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="Z15" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="AA15" t="s">
         <v>55</v>
@@ -14978,22 +14992,22 @@
         <v>55</v>
       </c>
       <c r="AE15" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="AF15" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="AG15" t="s">
-        <v>456</v>
+        <v>529</v>
       </c>
       <c r="AH15" t="s">
         <v>55</v>
       </c>
       <c r="AI15" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="AJ15" s="1">
-        <v>18299</v>
+        <v>17499</v>
       </c>
       <c r="AK15" t="s">
         <v>55</v>
@@ -15065,9 +15079,9 @@
         <v>449</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -15076,16 +15090,16 @@
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E16" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F16" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G16" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H16" t="s">
         <v>55</v>
@@ -15109,7 +15123,7 @@
         <v>55</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="Q16" t="s">
         <v>55</v>
@@ -15130,13 +15144,13 @@
         <v>55</v>
       </c>
       <c r="X16" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Y16" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="Z16" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="AA16" t="s">
         <v>55</v>
@@ -15151,13 +15165,13 @@
         <v>55</v>
       </c>
       <c r="AE16" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="AF16" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="AG16" t="s">
-        <v>537</v>
+        <v>456</v>
       </c>
       <c r="AH16" t="s">
         <v>55</v>
@@ -15166,7 +15180,7 @@
         <v>500</v>
       </c>
       <c r="AJ16" s="1">
-        <v>19818</v>
+        <v>18299</v>
       </c>
       <c r="AK16" t="s">
         <v>55</v>
@@ -15238,9 +15252,9 @@
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -15252,13 +15266,13 @@
         <v>176</v>
       </c>
       <c r="E17" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="F17" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G17" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="H17" t="s">
         <v>55</v>
@@ -15282,7 +15296,7 @@
         <v>55</v>
       </c>
       <c r="P17" t="s">
-        <v>551</v>
+        <v>178</v>
       </c>
       <c r="Q17" t="s">
         <v>55</v>
@@ -15309,7 +15323,7 @@
         <v>181</v>
       </c>
       <c r="Z17" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="AA17" t="s">
         <v>55</v>
@@ -15324,13 +15338,13 @@
         <v>55</v>
       </c>
       <c r="AE17" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="AF17" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="AG17" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="AH17" t="s">
         <v>55</v>
@@ -15339,7 +15353,7 @@
         <v>500</v>
       </c>
       <c r="AJ17" s="1">
-        <v>23938</v>
+        <v>19818</v>
       </c>
       <c r="AK17" t="s">
         <v>55</v>
@@ -15405,15 +15419,15 @@
         <v>55</v>
       </c>
       <c r="BF17" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="BG17" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -15422,16 +15436,16 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E18" t="s">
         <v>440</v>
       </c>
       <c r="F18" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G18" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H18" t="s">
         <v>55</v>
@@ -15455,7 +15469,7 @@
         <v>55</v>
       </c>
       <c r="P18" t="s">
-        <v>185</v>
+        <v>551</v>
       </c>
       <c r="Q18" t="s">
         <v>55</v>
@@ -15476,13 +15490,13 @@
         <v>55</v>
       </c>
       <c r="X18" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="Z18" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="AA18" t="s">
         <v>55</v>
@@ -15497,22 +15511,22 @@
         <v>55</v>
       </c>
       <c r="AE18" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="AF18" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="AG18" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="AH18" t="s">
         <v>55</v>
       </c>
       <c r="AI18" t="s">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="AJ18" s="1">
-        <v>16791</v>
+        <v>23938</v>
       </c>
       <c r="AK18" t="s">
         <v>55</v>
@@ -15578,15 +15592,15 @@
         <v>55</v>
       </c>
       <c r="BF18" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="BG18" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -15595,16 +15609,16 @@
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="E19" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F19" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="G19" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H19" t="s">
         <v>55</v>
@@ -15628,7 +15642,7 @@
         <v>55</v>
       </c>
       <c r="P19" t="s">
-        <v>563</v>
+        <v>185</v>
       </c>
       <c r="Q19" t="s">
         <v>55</v>
@@ -15649,13 +15663,13 @@
         <v>55</v>
       </c>
       <c r="X19" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="Y19" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="Z19" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="AA19" t="s">
         <v>55</v>
@@ -15664,28 +15678,28 @@
         <v>55</v>
       </c>
       <c r="AC19" t="s">
-        <v>565</v>
+        <v>55</v>
       </c>
       <c r="AD19" t="s">
         <v>55</v>
       </c>
       <c r="AE19" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="AF19" t="s">
-        <v>455</v>
+        <v>559</v>
       </c>
       <c r="AG19" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="AH19" t="s">
-        <v>567</v>
+        <v>55</v>
       </c>
       <c r="AI19" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="AJ19" s="1">
-        <v>13644</v>
+        <v>16791</v>
       </c>
       <c r="AK19" t="s">
         <v>55</v>
@@ -15757,7 +15771,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>568</v>
       </c>
@@ -15931,7 +15945,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>571</v>
       </c>
@@ -16114,94 +16128,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C854A64-37E5-4A92-B160-E6DDE93884C8}">
   <dimension ref="A1:BI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="95" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.85546875" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="99.88671875" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="25" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.85546875" customWidth="1"/>
-    <col min="46" max="46" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.88671875" customWidth="1"/>
+    <col min="46" max="46" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="21" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="9" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -16213,7 +16227,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -16303,22 +16317,22 @@
         <v>34</v>
       </c>
       <c r="AJ1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AK1" t="s">
         <v>1283</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>1284</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>1285</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>1286</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>1287</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>1288</v>
       </c>
       <c r="AP1" t="s">
         <v>41</v>
@@ -16354,39 +16368,39 @@
         <v>51</v>
       </c>
       <c r="BA1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="BB1" t="s">
         <v>1289</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>1290</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>1291</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>1292</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>1293</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>1294</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>1295</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>1296</v>
       </c>
-      <c r="BI1" t="s">
-        <v>1297</v>
-      </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
@@ -16491,19 +16505,19 @@
         <v>58</v>
       </c>
       <c r="AK2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="AL2" t="s">
         <v>58</v>
       </c>
       <c r="AM2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="AN2" t="s">
         <v>58</v>
       </c>
       <c r="AO2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="AP2" t="s">
         <v>55</v>
@@ -16551,7 +16565,7 @@
         <v>55</v>
       </c>
       <c r="BE2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="BF2" t="s">
         <v>55</v>
@@ -16566,12 +16580,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -16580,7 +16594,7 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -16646,16 +16660,16 @@
         <v>68</v>
       </c>
       <c r="AA3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="AB3" t="s">
         <v>69</v>
       </c>
       <c r="AC3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="AD3" t="s">
         <v>1302</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>1303</v>
       </c>
       <c r="AE3" t="s">
         <v>70</v>
@@ -16676,19 +16690,19 @@
         <v>74</v>
       </c>
       <c r="AK3" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AL3" t="s">
         <v>74</v>
       </c>
       <c r="AM3" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AN3" t="s">
         <v>74</v>
       </c>
       <c r="AO3" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AP3" t="s">
         <v>55</v>
@@ -16736,27 +16750,27 @@
         <v>76</v>
       </c>
       <c r="BE3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="BF3" t="s">
         <v>1305</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>1306</v>
       </c>
       <c r="BG3" t="s">
         <v>78</v>
       </c>
       <c r="BH3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="BI3" t="s">
         <v>1307</v>
       </c>
-      <c r="BI3" t="s">
-        <v>1308</v>
-      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
@@ -16765,7 +16779,7 @@
         <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -16780,7 +16794,7 @@
         <v>83</v>
       </c>
       <c r="J4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="K4" t="s">
         <v>84</v>
@@ -16831,16 +16845,16 @@
         <v>88</v>
       </c>
       <c r="AA4" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="AB4" t="s">
         <v>89</v>
       </c>
       <c r="AC4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AD4" t="s">
         <v>1311</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>1312</v>
       </c>
       <c r="AE4" t="s">
         <v>70</v>
@@ -16861,19 +16875,19 @@
         <v>74</v>
       </c>
       <c r="AK4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AL4" t="s">
         <v>74</v>
       </c>
       <c r="AM4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AN4" t="s">
         <v>74</v>
       </c>
       <c r="AO4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AP4" t="s">
         <v>55</v>
@@ -16921,27 +16935,27 @@
         <v>76</v>
       </c>
       <c r="BE4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="BF4" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="BG4" t="s">
         <v>78</v>
       </c>
       <c r="BH4" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="BI4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
@@ -16950,7 +16964,7 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -16965,7 +16979,7 @@
         <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="K5" t="s">
         <v>96</v>
@@ -16989,7 +17003,7 @@
         <v>55</v>
       </c>
       <c r="R5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="S5" t="s">
         <v>96</v>
@@ -17016,16 +17030,16 @@
         <v>100</v>
       </c>
       <c r="AA5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AB5" t="s">
         <v>101</v>
       </c>
       <c r="AC5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AD5" t="s">
         <v>1318</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>1319</v>
       </c>
       <c r="AE5" t="s">
         <v>70</v>
@@ -17046,19 +17060,19 @@
         <v>74</v>
       </c>
       <c r="AK5" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AL5" t="s">
         <v>74</v>
       </c>
       <c r="AM5" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AN5" t="s">
         <v>74</v>
       </c>
       <c r="AO5" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AP5" t="s">
         <v>55</v>
@@ -17106,27 +17120,27 @@
         <v>76</v>
       </c>
       <c r="BE5" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="BF5" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="BG5" t="s">
         <v>78</v>
       </c>
       <c r="BH5" t="s">
+        <v>1320</v>
+      </c>
+      <c r="BI5" t="s">
         <v>1321</v>
       </c>
-      <c r="BI5" t="s">
-        <v>1322</v>
-      </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C6" t="s">
         <v>55</v>
@@ -17135,7 +17149,7 @@
         <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -17150,7 +17164,7 @@
         <v>107</v>
       </c>
       <c r="J6" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="K6" t="s">
         <v>84</v>
@@ -17174,7 +17188,7 @@
         <v>107</v>
       </c>
       <c r="R6" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="S6" t="s">
         <v>84</v>
@@ -17201,16 +17215,16 @@
         <v>111</v>
       </c>
       <c r="AA6" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="AB6" t="s">
         <v>112</v>
       </c>
       <c r="AC6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AD6" t="s">
         <v>1325</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>1326</v>
       </c>
       <c r="AE6" t="s">
         <v>113</v>
@@ -17231,19 +17245,19 @@
         <v>74</v>
       </c>
       <c r="AK6" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AL6" t="s">
         <v>74</v>
       </c>
       <c r="AM6" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AN6" t="s">
         <v>74</v>
       </c>
       <c r="AO6" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AP6" t="s">
         <v>55</v>
@@ -17291,27 +17305,27 @@
         <v>115</v>
       </c>
       <c r="BE6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="BF6" t="s">
         <v>1305</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>1306</v>
       </c>
       <c r="BG6" t="s">
         <v>116</v>
       </c>
       <c r="BH6" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="BI6" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
@@ -17320,7 +17334,7 @@
         <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -17386,16 +17400,16 @@
         <v>125</v>
       </c>
       <c r="AA7" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="AB7" t="s">
         <v>126</v>
       </c>
       <c r="AC7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AD7" t="s">
         <v>1329</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>1330</v>
       </c>
       <c r="AE7" t="s">
         <v>70</v>
@@ -17416,19 +17430,19 @@
         <v>74</v>
       </c>
       <c r="AK7" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AL7" t="s">
         <v>74</v>
       </c>
       <c r="AM7" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AN7" t="s">
         <v>74</v>
       </c>
       <c r="AO7" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AP7" t="s">
         <v>55</v>
@@ -17476,27 +17490,27 @@
         <v>130</v>
       </c>
       <c r="BE7" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="BF7" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="BG7" t="s">
         <v>77</v>
       </c>
       <c r="BH7" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="BI7" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C8" t="s">
         <v>55</v>
@@ -17505,7 +17519,7 @@
         <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -17571,16 +17585,16 @@
         <v>139</v>
       </c>
       <c r="AA8" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="AB8" t="s">
         <v>140</v>
       </c>
       <c r="AC8" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AD8" t="s">
         <v>1334</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>1335</v>
       </c>
       <c r="AE8" t="s">
         <v>70</v>
@@ -17601,19 +17615,19 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AL8" t="s">
         <v>74</v>
       </c>
       <c r="AM8" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AN8" t="s">
         <v>74</v>
       </c>
       <c r="AO8" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AP8" t="s">
         <v>55</v>
@@ -17661,27 +17675,27 @@
         <v>143</v>
       </c>
       <c r="BE8" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="BF8" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="BG8" t="s">
         <v>77</v>
       </c>
       <c r="BH8" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="BI8" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C9" t="s">
         <v>55</v>
@@ -17690,7 +17704,7 @@
         <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -17756,16 +17770,16 @@
         <v>152</v>
       </c>
       <c r="AA9" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="AB9" t="s">
         <v>153</v>
       </c>
       <c r="AC9" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="AD9" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="AE9" t="s">
         <v>70</v>
@@ -17786,19 +17800,19 @@
         <v>74</v>
       </c>
       <c r="AK9" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AL9" t="s">
         <v>74</v>
       </c>
       <c r="AM9" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AN9" t="s">
         <v>74</v>
       </c>
       <c r="AO9" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AP9" t="s">
         <v>55</v>
@@ -17846,27 +17860,27 @@
         <v>143</v>
       </c>
       <c r="BE9" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="BF9" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="BG9" t="s">
         <v>78</v>
       </c>
       <c r="BH9" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="BI9" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -17875,7 +17889,7 @@
         <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -17941,7 +17955,7 @@
         <v>165</v>
       </c>
       <c r="AA10" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="AB10" t="s">
         <v>166</v>
@@ -17950,7 +17964,7 @@
         <v>55</v>
       </c>
       <c r="AD10" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="AE10" t="s">
         <v>167</v>
@@ -17971,19 +17985,19 @@
         <v>74</v>
       </c>
       <c r="AK10" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AL10" t="s">
         <v>74</v>
       </c>
       <c r="AM10" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AN10" t="s">
         <v>74</v>
       </c>
       <c r="AO10" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AP10" t="s">
         <v>55</v>
@@ -18031,27 +18045,27 @@
         <v>130</v>
       </c>
       <c r="BE10" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="BF10" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="BG10" t="s">
         <v>77</v>
       </c>
       <c r="BH10" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="BI10" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
@@ -18060,7 +18074,7 @@
         <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -18126,7 +18140,7 @@
         <v>139</v>
       </c>
       <c r="AA11" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="AB11" t="s">
         <v>140</v>
@@ -18135,7 +18149,7 @@
         <v>55</v>
       </c>
       <c r="AD11" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="AE11" t="s">
         <v>70</v>
@@ -18156,19 +18170,19 @@
         <v>74</v>
       </c>
       <c r="AK11" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AL11" t="s">
         <v>74</v>
       </c>
       <c r="AM11" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AN11" t="s">
         <v>74</v>
       </c>
       <c r="AO11" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AP11" t="s">
         <v>55</v>
@@ -18216,27 +18230,27 @@
         <v>143</v>
       </c>
       <c r="BE11" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="BF11" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="BG11" t="s">
         <v>116</v>
       </c>
       <c r="BH11" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="BI11" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
@@ -18245,7 +18259,7 @@
         <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F12" t="s">
         <v>55</v>
@@ -18311,7 +18325,7 @@
         <v>139</v>
       </c>
       <c r="AA12" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="AB12" t="s">
         <v>140</v>
@@ -18320,7 +18334,7 @@
         <v>55</v>
       </c>
       <c r="AD12" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="AE12" t="s">
         <v>70</v>
@@ -18341,19 +18355,19 @@
         <v>74</v>
       </c>
       <c r="AK12" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AL12" t="s">
         <v>74</v>
       </c>
       <c r="AM12" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AN12" t="s">
         <v>74</v>
       </c>
       <c r="AO12" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AP12" t="s">
         <v>55</v>
@@ -18401,27 +18415,27 @@
         <v>143</v>
       </c>
       <c r="BE12" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="BF12" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="BG12" t="s">
         <v>78</v>
       </c>
       <c r="BH12" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="BI12" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -18430,7 +18444,7 @@
         <v>184</v>
       </c>
       <c r="E13" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F13" t="s">
         <v>55</v>
@@ -18496,16 +18510,16 @@
         <v>191</v>
       </c>
       <c r="AA13" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="AB13" t="s">
         <v>192</v>
       </c>
       <c r="AC13" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AD13" t="s">
         <v>1352</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>1353</v>
       </c>
       <c r="AE13" t="s">
         <v>113</v>
@@ -18526,19 +18540,19 @@
         <v>74</v>
       </c>
       <c r="AK13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AL13" t="s">
         <v>74</v>
       </c>
       <c r="AM13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AN13" t="s">
         <v>74</v>
       </c>
       <c r="AO13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AP13" t="s">
         <v>55</v>
@@ -18586,27 +18600,27 @@
         <v>115</v>
       </c>
       <c r="BE13" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="BF13" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="BG13" t="s">
         <v>77</v>
       </c>
       <c r="BH13" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="BI13" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>194</v>
       </c>
       <c r="B14" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -18630,7 +18644,7 @@
         <v>187</v>
       </c>
       <c r="J14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="K14" t="s">
         <v>198</v>
@@ -18711,19 +18725,19 @@
         <v>74</v>
       </c>
       <c r="AK14" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AL14" t="s">
         <v>74</v>
       </c>
       <c r="AM14" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AN14" t="s">
         <v>74</v>
       </c>
       <c r="AO14" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AP14" t="s">
         <v>55</v>
@@ -18771,7 +18785,7 @@
         <v>55</v>
       </c>
       <c r="BE14" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="BF14" t="s">
         <v>55</v>
@@ -18800,75 +18814,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC9AEAC-E8EE-4674-978F-85EC1FBAAEBA}">
   <dimension ref="A1:BH23"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="AL1" zoomScale="85" workbookViewId="0">
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="19" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.5703125" customWidth="1"/>
-    <col min="38" max="38" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.5546875" customWidth="1"/>
+    <col min="38" max="38" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="13" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>574</v>
       </c>
@@ -19050,7 +19064,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>596</v>
       </c>
@@ -19229,7 +19243,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>611</v>
       </c>
@@ -19402,7 +19416,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>620</v>
       </c>
@@ -19575,7 +19589,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>628</v>
       </c>
@@ -19748,7 +19762,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>635</v>
       </c>
@@ -19921,7 +19935,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>642</v>
       </c>
@@ -20094,7 +20108,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>648</v>
       </c>
@@ -20267,7 +20281,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>655</v>
       </c>
@@ -20440,7 +20454,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>662</v>
       </c>
@@ -20613,7 +20627,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>667</v>
       </c>
@@ -20786,7 +20800,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>673</v>
       </c>
@@ -20959,7 +20973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>682</v>
       </c>
@@ -21132,7 +21146,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>689</v>
       </c>
@@ -21305,7 +21319,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>692</v>
       </c>
@@ -21478,7 +21492,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>694</v>
       </c>
@@ -21651,7 +21665,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>700</v>
       </c>
@@ -21824,7 +21838,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>707</v>
       </c>
@@ -21997,7 +22011,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>714</v>
       </c>
@@ -22179,7 +22193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>716</v>
       </c>
@@ -22352,7 +22366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>722</v>
       </c>
@@ -22525,7 +22539,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>729</v>
       </c>
@@ -22698,7 +22712,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>735</v>
       </c>
@@ -22884,19 +22898,19 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="15.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1249</v>
       </c>
@@ -22907,134 +22921,134 @@
         <v>1255</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>1254</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1264</v>
+      <c r="C2" s="5" t="s">
+        <v>1263</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1256</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1257</v>
+        <v>1357</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1252</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>1357</v>
+      <c r="B6" s="2" t="s">
+        <v>1266</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1267</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1278</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1251</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>1261</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1275</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1265</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1278</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1261</v>
+    <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1272</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>1270</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>1271</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>1272</v>
       </c>
     </row>
   </sheetData>
@@ -23048,88 +23062,88 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="21" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="20" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="20" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="20" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="26" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="23" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="14" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="27" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="20" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1080</v>
       </c>
@@ -23365,7 +23379,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1133</v>
       </c>
@@ -23589,7 +23603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -23809,7 +23823,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1157</v>
       </c>
@@ -24029,7 +24043,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1166</v>
       </c>
@@ -24247,7 +24261,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1173</v>
       </c>
@@ -24465,7 +24479,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1179</v>
       </c>
@@ -24683,7 +24697,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1187</v>
       </c>
@@ -24907,7 +24921,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -25157,24 +25171,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1020</v>
       </c>
@@ -25215,7 +25229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1024</v>
       </c>
@@ -25256,7 +25270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1028</v>
       </c>
@@ -25297,7 +25311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1032</v>
       </c>
@@ -25338,7 +25352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1036</v>
       </c>
@@ -25379,7 +25393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1039</v>
       </c>
@@ -25432,35 +25446,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FD7411-5341-4ED3-BF13-83506D4E51E6}">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>983</v>
       </c>
@@ -25528,7 +25544,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>948</v>
       </c>
@@ -25596,7 +25612,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>932</v>
       </c>
@@ -25664,7 +25680,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>934</v>
       </c>
@@ -25732,7 +25748,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>936</v>
       </c>
@@ -25800,7 +25816,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>938</v>
       </c>
@@ -25868,7 +25884,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>940</v>
       </c>
@@ -25936,7 +25952,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>942</v>
       </c>
@@ -26004,7 +26020,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>944</v>
       </c>
@@ -26072,7 +26088,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>946</v>
       </c>
@@ -26140,7 +26156,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>950</v>
       </c>
@@ -26208,7 +26224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>952</v>
       </c>
@@ -26276,7 +26292,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>954</v>
       </c>
@@ -26344,7 +26360,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>956</v>
       </c>
@@ -26412,7 +26428,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>958</v>
       </c>
@@ -26480,7 +26496,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>960</v>
       </c>
@@ -26548,7 +26564,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>962</v>
       </c>
@@ -26616,7 +26632,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>964</v>
       </c>
@@ -26698,24 +26714,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>925</v>
       </c>
@@ -26756,7 +26772,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>947</v>
       </c>
@@ -26797,7 +26813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>974</v>
       </c>
@@ -26838,7 +26854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>930</v>
       </c>
@@ -26879,7 +26895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>965</v>
       </c>
@@ -26920,7 +26936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>933</v>
       </c>
@@ -26961,7 +26977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>967</v>
       </c>
@@ -27002,7 +27018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>935</v>
       </c>
@@ -27043,7 +27059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>968</v>
       </c>
@@ -27084,7 +27100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>937</v>
       </c>
@@ -27125,7 +27141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>969</v>
       </c>
@@ -27166,7 +27182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>939</v>
       </c>
@@ -27207,7 +27223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>970</v>
       </c>
@@ -27248,7 +27264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>941</v>
       </c>
@@ -27289,7 +27305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>971</v>
       </c>
@@ -27330,7 +27346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>943</v>
       </c>
@@ -27371,7 +27387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>972</v>
       </c>
@@ -27412,7 +27428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>945</v>
       </c>
@@ -27453,7 +27469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>973</v>
       </c>
@@ -27494,7 +27510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>949</v>
       </c>
@@ -27535,7 +27551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>975</v>
       </c>
@@ -27576,7 +27592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>951</v>
       </c>
@@ -27617,7 +27633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>976</v>
       </c>
@@ -27658,7 +27674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>953</v>
       </c>
@@ -27699,7 +27715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>977</v>
       </c>
@@ -27740,7 +27756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>955</v>
       </c>
@@ -27781,7 +27797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>978</v>
       </c>
@@ -27822,7 +27838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>957</v>
       </c>
@@ -27863,7 +27879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>979</v>
       </c>
@@ -27904,7 +27920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>959</v>
       </c>
@@ -27945,7 +27961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>980</v>
       </c>
@@ -27986,7 +28002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>961</v>
       </c>
@@ -28027,7 +28043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>981</v>
       </c>
@@ -28068,7 +28084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>963</v>
       </c>
@@ -28109,7 +28125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>982</v>
       </c>
@@ -28162,33 +28178,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFED295-1629-4FD3-BA3D-DA873EC94F1E}">
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="L1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>853</v>
       </c>
@@ -28250,7 +28268,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>863</v>
       </c>
@@ -28310,7 +28328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>894</v>
       </c>
@@ -28370,7 +28388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>869</v>
       </c>
@@ -28430,7 +28448,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>900</v>
       </c>
@@ -28490,7 +28508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>864</v>
       </c>
@@ -28550,7 +28568,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>895</v>
       </c>
@@ -28610,7 +28628,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>866</v>
       </c>
@@ -28670,7 +28688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>897</v>
       </c>
@@ -28730,7 +28748,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>868</v>
       </c>
@@ -28790,7 +28808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>899</v>
       </c>
@@ -28850,7 +28868,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>865</v>
       </c>
@@ -28910,7 +28928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>896</v>
       </c>
@@ -28970,7 +28988,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>867</v>
       </c>
@@ -29030,7 +29048,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>898</v>
       </c>
@@ -29090,7 +29108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>870</v>
       </c>
@@ -29150,7 +29168,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>901</v>
       </c>
@@ -29210,7 +29228,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>871</v>
       </c>
@@ -29270,7 +29288,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>902</v>
       </c>
@@ -29330,7 +29348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>872</v>
       </c>
@@ -29390,7 +29408,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>903</v>
       </c>
@@ -29450,7 +29468,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>873</v>
       </c>
@@ -29510,7 +29528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>904</v>
       </c>
@@ -29570,7 +29588,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>874</v>
       </c>
@@ -29630,7 +29648,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>906</v>
       </c>
@@ -29690,7 +29708,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>877</v>
       </c>
@@ -29750,7 +29768,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>905</v>
       </c>
@@ -29810,7 +29828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>878</v>
       </c>
@@ -29870,7 +29888,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>909</v>
       </c>
@@ -29930,7 +29948,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>879</v>
       </c>
@@ -29990,7 +30008,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>910</v>
       </c>
@@ -30050,7 +30068,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>880</v>
       </c>
@@ -30110,7 +30128,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>911</v>
       </c>
@@ -30170,7 +30188,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>881</v>
       </c>
@@ -30230,7 +30248,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>912</v>
       </c>
@@ -30290,7 +30308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>882</v>
       </c>
@@ -30350,7 +30368,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>913</v>
       </c>
@@ -30410,7 +30428,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>883</v>
       </c>
@@ -30470,7 +30488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>914</v>
       </c>
@@ -30530,7 +30548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>884</v>
       </c>
@@ -30590,7 +30608,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>915</v>
       </c>
@@ -30650,7 +30668,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>885</v>
       </c>
@@ -30710,7 +30728,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>916</v>
       </c>
@@ -30770,7 +30788,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>886</v>
       </c>
@@ -30830,7 +30848,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>917</v>
       </c>
@@ -30890,7 +30908,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>887</v>
       </c>
@@ -30950,7 +30968,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>918</v>
       </c>
@@ -31010,7 +31028,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>888</v>
       </c>
@@ -31070,7 +31088,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>919</v>
       </c>
@@ -31130,7 +31148,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>889</v>
       </c>
@@ -31190,7 +31208,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>920</v>
       </c>
@@ -31250,7 +31268,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>891</v>
       </c>
@@ -31310,7 +31328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>922</v>
       </c>
@@ -31370,7 +31388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>892</v>
       </c>
@@ -31430,7 +31448,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>923</v>
       </c>
@@ -31490,7 +31508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>893</v>
       </c>
@@ -31550,7 +31568,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>924</v>
       </c>
@@ -31610,7 +31628,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>890</v>
       </c>
@@ -31670,7 +31688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>921</v>
       </c>
@@ -31730,7 +31748,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>875</v>
       </c>
@@ -31790,7 +31808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>907</v>
       </c>
@@ -31850,7 +31868,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>876</v>
       </c>
@@ -31910,7 +31928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>908</v>
       </c>
@@ -31971,6 +31989,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -31982,58 +32001,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0138363E-4706-418E-BA39-AFC36F0D9A3F}">
   <dimension ref="A1:AQ32"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.88671875" customWidth="1"/>
+    <col min="14" max="14" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="26" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.5703125" customWidth="1"/>
-    <col min="42" max="42" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.5546875" customWidth="1"/>
+    <col min="42" max="42" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="32.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>742</v>
       </c>
@@ -32164,66 +32183,66 @@
         <v>767</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>776</v>
+        <v>810</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>75000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="s">
         <v>55</v>
       </c>
       <c r="M2" s="1">
-        <v>45223</v>
+        <v>45171</v>
       </c>
       <c r="N2" t="s">
-        <v>771</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
         <v>55</v>
       </c>
       <c r="P2" t="s">
-        <v>516</v>
+        <v>627</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>282</v>
+        <v>772</v>
       </c>
       <c r="T2" t="s">
-        <v>282</v>
+        <v>772</v>
       </c>
       <c r="U2" t="s">
         <v>57</v>
@@ -32262,7 +32281,7 @@
         <v>2015</v>
       </c>
       <c r="AG2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="s">
         <v>57</v>
@@ -32280,81 +32299,75 @@
         <v>55</v>
       </c>
       <c r="AM2" t="s">
-        <v>236</v>
-      </c>
-      <c r="AN2">
-        <v>830150301420</v>
-      </c>
-      <c r="AO2">
-        <v>731645</v>
+        <v>55</v>
       </c>
       <c r="AP2" t="s">
-        <v>681</v>
+        <v>55</v>
       </c>
       <c r="AQ2" t="s">
-        <v>681</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>815</v>
+        <v>768</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>816</v>
+        <v>769</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>50000</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="s">
         <v>55</v>
       </c>
       <c r="M3" s="1">
-        <v>45153</v>
+        <v>45175</v>
       </c>
       <c r="N3" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="O3" t="s">
         <v>55</v>
       </c>
       <c r="P3" t="s">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>282</v>
+        <v>772</v>
       </c>
       <c r="T3" t="s">
-        <v>282</v>
+        <v>772</v>
       </c>
       <c r="U3" t="s">
         <v>57</v>
@@ -32411,57 +32424,54 @@
         <v>55</v>
       </c>
       <c r="AM3" t="s">
-        <v>236</v>
-      </c>
-      <c r="AO3">
-        <v>835178</v>
+        <v>55</v>
       </c>
       <c r="AP3" t="s">
         <v>55</v>
       </c>
       <c r="AQ3" t="s">
-        <v>55</v>
+        <v>773</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>818</v>
+        <v>841</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>776</v>
+        <v>842</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>60000</v>
+        <v>675000</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>60000</v>
+        <v>135000</v>
       </c>
       <c r="L4" t="s">
         <v>55</v>
       </c>
       <c r="M4" s="1">
-        <v>45118</v>
+        <v>45187</v>
       </c>
       <c r="N4" t="s">
         <v>777</v>
@@ -32470,19 +32480,19 @@
         <v>55</v>
       </c>
       <c r="P4" t="s">
-        <v>516</v>
+        <v>55</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>282</v>
+        <v>772</v>
       </c>
       <c r="T4" t="s">
-        <v>282</v>
+        <v>772</v>
       </c>
       <c r="U4" t="s">
         <v>57</v>
@@ -32541,64 +32551,61 @@
       <c r="AM4" t="s">
         <v>55</v>
       </c>
-      <c r="AO4">
-        <v>847564</v>
-      </c>
       <c r="AP4" t="s">
-        <v>55</v>
+        <v>789</v>
       </c>
       <c r="AQ4" t="s">
-        <v>55</v>
+        <v>843</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>844</v>
+        <v>798</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>35000</v>
+        <v>250000</v>
       </c>
       <c r="J5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>21000</v>
+        <v>125000</v>
       </c>
       <c r="L5" t="s">
         <v>55</v>
       </c>
       <c r="M5" s="1">
-        <v>45229</v>
+        <v>45223</v>
       </c>
       <c r="N5" t="s">
-        <v>845</v>
+        <v>777</v>
       </c>
       <c r="O5" t="s">
         <v>55</v>
       </c>
       <c r="P5" t="s">
-        <v>55</v>
+        <v>801</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -32667,75 +32674,75 @@
         <v>55</v>
       </c>
       <c r="AM5" t="s">
-        <v>55</v>
+        <v>788</v>
       </c>
       <c r="AP5" t="s">
-        <v>55</v>
+        <v>773</v>
       </c>
       <c r="AQ5" t="s">
-        <v>823</v>
+        <v>773</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>776</v>
+        <v>800</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>235000</v>
+        <v>80000</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>235000</v>
+        <v>40000</v>
       </c>
       <c r="L6" t="s">
         <v>55</v>
       </c>
       <c r="M6" s="1">
-        <v>45168</v>
+        <v>45126</v>
       </c>
       <c r="N6" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="O6" t="s">
         <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>296</v>
+        <v>485</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>282</v>
+        <v>772</v>
       </c>
       <c r="T6" t="s">
-        <v>282</v>
+        <v>772</v>
       </c>
       <c r="U6" t="s">
         <v>57</v>
@@ -32794,67 +32801,61 @@
       <c r="AM6" t="s">
         <v>788</v>
       </c>
-      <c r="AN6">
-        <v>830150301360</v>
-      </c>
-      <c r="AO6">
-        <v>645612</v>
-      </c>
       <c r="AP6" t="s">
-        <v>681</v>
+        <v>793</v>
       </c>
       <c r="AQ6" t="s">
-        <v>681</v>
+        <v>773</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>100000</v>
+        <v>15000</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="K7">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="s">
         <v>55</v>
       </c>
       <c r="M7" s="1">
-        <v>45171</v>
+        <v>45123</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>777</v>
       </c>
       <c r="O7" t="s">
         <v>55</v>
       </c>
       <c r="P7" t="s">
-        <v>627</v>
+        <v>55</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -32923,63 +32924,63 @@
         <v>55</v>
       </c>
       <c r="AM7" t="s">
-        <v>55</v>
+        <v>788</v>
       </c>
       <c r="AP7" t="s">
-        <v>55</v>
+        <v>681</v>
       </c>
       <c r="AQ7" t="s">
-        <v>55</v>
+        <v>797</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>768</v>
+        <v>844</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>769</v>
+        <v>803</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="K8">
-        <v>1500</v>
+        <v>21000</v>
       </c>
       <c r="L8" t="s">
         <v>55</v>
       </c>
       <c r="M8" s="1">
-        <v>45175</v>
+        <v>45229</v>
       </c>
       <c r="N8" t="s">
-        <v>771</v>
+        <v>845</v>
       </c>
       <c r="O8" t="s">
         <v>55</v>
       </c>
       <c r="P8" t="s">
-        <v>479</v>
+        <v>55</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -33030,7 +33031,7 @@
         <v>2015</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH8" t="s">
         <v>57</v>
@@ -33054,24 +33055,24 @@
         <v>55</v>
       </c>
       <c r="AQ8" t="s">
-        <v>773</v>
+        <v>823</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>794</v>
+        <v>848</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>795</v>
+        <v>849</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -33083,22 +33084,22 @@
         <v>5</v>
       </c>
       <c r="I9">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="J9">
         <v>60</v>
       </c>
       <c r="K9">
-        <v>9000</v>
+        <v>36000</v>
       </c>
       <c r="L9" t="s">
         <v>55</v>
       </c>
       <c r="M9" s="1">
-        <v>45123</v>
+        <v>45217</v>
       </c>
       <c r="N9" t="s">
-        <v>777</v>
+        <v>55</v>
       </c>
       <c r="O9" t="s">
         <v>55</v>
@@ -33155,7 +33156,7 @@
         <v>2015</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH9" t="s">
         <v>57</v>
@@ -33176,51 +33177,51 @@
         <v>788</v>
       </c>
       <c r="AP9" t="s">
-        <v>681</v>
+        <v>850</v>
       </c>
       <c r="AQ9" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>798</v>
+        <v>826</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>800</v>
+        <v>828</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>250000</v>
+        <v>120000</v>
       </c>
       <c r="J10">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K10">
-        <v>125000</v>
+        <v>84000</v>
       </c>
       <c r="L10" t="s">
         <v>55</v>
       </c>
       <c r="M10" s="1">
-        <v>45223</v>
+        <v>45127</v>
       </c>
       <c r="N10" t="s">
         <v>777</v>
@@ -33229,7 +33230,7 @@
         <v>55</v>
       </c>
       <c r="P10" t="s">
-        <v>801</v>
+        <v>485</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -33280,7 +33281,7 @@
         <v>2015</v>
       </c>
       <c r="AG10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH10" t="s">
         <v>57</v>
@@ -33298,54 +33299,54 @@
         <v>55</v>
       </c>
       <c r="AM10" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="AP10" t="s">
-        <v>773</v>
+        <v>55</v>
       </c>
       <c r="AQ10" t="s">
-        <v>773</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>820</v>
+        <v>785</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>821</v>
+        <v>786</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K11">
-        <v>350000</v>
+        <v>202500</v>
       </c>
       <c r="L11" t="s">
         <v>55</v>
       </c>
       <c r="M11" s="1">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="N11" t="s">
         <v>777</v>
@@ -33354,19 +33355,19 @@
         <v>55</v>
       </c>
       <c r="P11" t="s">
-        <v>485</v>
+        <v>55</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>282</v>
+        <v>772</v>
       </c>
       <c r="T11" t="s">
-        <v>282</v>
+        <v>772</v>
       </c>
       <c r="U11" t="s">
         <v>57</v>
@@ -33423,57 +33424,54 @@
         <v>55</v>
       </c>
       <c r="AM11" t="s">
-        <v>236</v>
-      </c>
-      <c r="AO11">
-        <v>763546</v>
+        <v>788</v>
       </c>
       <c r="AP11" t="s">
-        <v>55</v>
+        <v>789</v>
       </c>
       <c r="AQ11" t="s">
-        <v>55</v>
+        <v>681</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="F12" t="s">
         <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I12">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="J12">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K12">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="L12" t="s">
         <v>55</v>
       </c>
       <c r="M12" s="1">
-        <v>45125</v>
+        <v>45129</v>
       </c>
       <c r="N12" t="s">
         <v>777</v>
@@ -33482,19 +33480,19 @@
         <v>55</v>
       </c>
       <c r="P12" t="s">
-        <v>485</v>
+        <v>801</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>282</v>
+        <v>772</v>
       </c>
       <c r="T12" t="s">
-        <v>282</v>
+        <v>772</v>
       </c>
       <c r="U12" t="s">
         <v>57</v>
@@ -33551,10 +33549,7 @@
         <v>55</v>
       </c>
       <c r="AM12" t="s">
-        <v>778</v>
-      </c>
-      <c r="AO12">
-        <v>254676</v>
+        <v>788</v>
       </c>
       <c r="AP12" t="s">
         <v>55</v>
@@ -33563,66 +33558,66 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>838</v>
+        <v>779</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>839</v>
+        <v>780</v>
       </c>
       <c r="F13" t="s">
         <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13">
-        <v>210000</v>
+        <v>125000</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K13">
-        <v>210000</v>
+        <v>112500</v>
       </c>
       <c r="L13" t="s">
         <v>55</v>
       </c>
       <c r="M13" s="1">
-        <v>45204</v>
+        <v>45163</v>
       </c>
       <c r="N13" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="O13" t="s">
         <v>55</v>
       </c>
       <c r="P13" t="s">
-        <v>485</v>
+        <v>55</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>282</v>
+        <v>772</v>
       </c>
       <c r="T13" t="s">
-        <v>282</v>
+        <v>772</v>
       </c>
       <c r="U13" t="s">
         <v>57</v>
@@ -33661,7 +33656,7 @@
         <v>2015</v>
       </c>
       <c r="AG13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="s">
         <v>57</v>
@@ -33679,24 +33674,18 @@
         <v>55</v>
       </c>
       <c r="AM13" t="s">
-        <v>236</v>
-      </c>
-      <c r="AN13">
-        <v>830150301360</v>
-      </c>
-      <c r="AO13">
-        <v>387624</v>
+        <v>55</v>
       </c>
       <c r="AP13" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="AQ13" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>774</v>
+        <v>813</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -33708,31 +33697,31 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>775</v>
+        <v>814</v>
       </c>
       <c r="F14" t="s">
         <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14">
-        <v>120000</v>
+        <v>270000</v>
       </c>
       <c r="J14">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K14">
-        <v>120000</v>
+        <v>243000</v>
       </c>
       <c r="L14" t="s">
         <v>55</v>
       </c>
       <c r="M14" s="1">
-        <v>45215</v>
+        <v>45159</v>
       </c>
       <c r="N14" t="s">
         <v>777</v>
@@ -33741,19 +33730,19 @@
         <v>55</v>
       </c>
       <c r="P14" t="s">
-        <v>560</v>
+        <v>55</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>282</v>
+        <v>772</v>
       </c>
       <c r="T14" t="s">
-        <v>282</v>
+        <v>772</v>
       </c>
       <c r="U14" t="s">
         <v>57</v>
@@ -33792,7 +33781,7 @@
         <v>2015</v>
       </c>
       <c r="AG14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="s">
         <v>57</v>
@@ -33810,10 +33799,7 @@
         <v>55</v>
       </c>
       <c r="AM14" t="s">
-        <v>778</v>
-      </c>
-      <c r="AO14">
-        <v>926363</v>
+        <v>788</v>
       </c>
       <c r="AP14" t="s">
         <v>55</v>
@@ -33822,9 +33808,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -33836,31 +33822,31 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="F15" t="s">
         <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="J15">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K15">
-        <v>112500</v>
+        <v>120000</v>
       </c>
       <c r="L15" t="s">
         <v>55</v>
       </c>
       <c r="M15" s="1">
-        <v>45163</v>
+        <v>45215</v>
       </c>
       <c r="N15" t="s">
         <v>777</v>
@@ -33869,19 +33855,19 @@
         <v>55</v>
       </c>
       <c r="P15" t="s">
-        <v>55</v>
+        <v>560</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="s">
-        <v>772</v>
+        <v>282</v>
       </c>
       <c r="T15" t="s">
-        <v>772</v>
+        <v>282</v>
       </c>
       <c r="U15" t="s">
         <v>57</v>
@@ -33920,7 +33906,7 @@
         <v>2015</v>
       </c>
       <c r="AG15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH15" t="s">
         <v>57</v>
@@ -33938,75 +33924,78 @@
         <v>55</v>
       </c>
       <c r="AM15" t="s">
-        <v>55</v>
+        <v>778</v>
+      </c>
+      <c r="AO15">
+        <v>926363</v>
       </c>
       <c r="AP15" t="s">
-        <v>782</v>
+        <v>55</v>
       </c>
       <c r="AQ15" t="s">
-        <v>782</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F16" t="s">
         <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I16">
-        <v>270000</v>
+        <v>85000</v>
       </c>
       <c r="J16">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K16">
-        <v>202500</v>
+        <v>85000</v>
       </c>
       <c r="L16" t="s">
         <v>55</v>
       </c>
       <c r="M16" s="1">
-        <v>45208</v>
+        <v>45166</v>
       </c>
       <c r="N16" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="O16" t="s">
         <v>55</v>
       </c>
       <c r="P16" t="s">
-        <v>55</v>
+        <v>560</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="s">
-        <v>772</v>
+        <v>282</v>
       </c>
       <c r="T16" t="s">
-        <v>772</v>
+        <v>282</v>
       </c>
       <c r="U16" t="s">
         <v>57</v>
@@ -34045,7 +34034,7 @@
         <v>2015</v>
       </c>
       <c r="AG16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH16" t="s">
         <v>57</v>
@@ -34063,75 +34052,81 @@
         <v>55</v>
       </c>
       <c r="AM16" t="s">
-        <v>788</v>
+        <v>236</v>
+      </c>
+      <c r="AN16">
+        <v>830150301420</v>
+      </c>
+      <c r="AO16">
+        <v>908676</v>
       </c>
       <c r="AP16" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="AQ16" t="s">
-        <v>681</v>
+        <v>773</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
       <c r="F17" t="s">
         <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I17">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="J17">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K17">
-        <v>243000</v>
+        <v>220000</v>
       </c>
       <c r="L17" t="s">
         <v>55</v>
       </c>
       <c r="M17" s="1">
-        <v>45159</v>
+        <v>45128</v>
       </c>
       <c r="N17" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="O17" t="s">
         <v>55</v>
       </c>
       <c r="P17" t="s">
-        <v>55</v>
+        <v>246</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="s">
-        <v>772</v>
+        <v>282</v>
       </c>
       <c r="T17" t="s">
-        <v>772</v>
+        <v>282</v>
       </c>
       <c r="U17" t="s">
         <v>57</v>
@@ -34188,30 +34183,36 @@
         <v>55</v>
       </c>
       <c r="AM17" t="s">
-        <v>788</v>
+        <v>55</v>
+      </c>
+      <c r="AN17">
+        <v>830150301420</v>
+      </c>
+      <c r="AO17">
+        <v>653276</v>
       </c>
       <c r="AP17" t="s">
-        <v>55</v>
+        <v>792</v>
       </c>
       <c r="AQ17" t="s">
-        <v>55</v>
+        <v>793</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="F18" t="s">
         <v>55</v>
@@ -34223,28 +34224,28 @@
         <v>9</v>
       </c>
       <c r="I18">
-        <v>270000</v>
+        <v>75000</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18">
-        <v>270000</v>
+        <v>75000</v>
       </c>
       <c r="L18" t="s">
         <v>55</v>
       </c>
       <c r="M18" s="1">
-        <v>45158</v>
+        <v>45223</v>
       </c>
       <c r="N18" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="O18" t="s">
         <v>55</v>
       </c>
       <c r="P18" t="s">
-        <v>560</v>
+        <v>516</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -34295,7 +34296,7 @@
         <v>2015</v>
       </c>
       <c r="AG18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH18" t="s">
         <v>57</v>
@@ -34313,33 +34314,36 @@
         <v>55</v>
       </c>
       <c r="AM18" t="s">
-        <v>778</v>
+        <v>236</v>
+      </c>
+      <c r="AN18">
+        <v>830150301420</v>
       </c>
       <c r="AO18">
-        <v>427609</v>
+        <v>731645</v>
       </c>
       <c r="AP18" t="s">
-        <v>55</v>
+        <v>681</v>
       </c>
       <c r="AQ18" t="s">
-        <v>55</v>
+        <v>681</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
       <c r="F19" t="s">
         <v>55</v>
@@ -34351,19 +34355,19 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>915000</v>
+        <v>50000</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19">
-        <v>915000</v>
+        <v>50000</v>
       </c>
       <c r="L19" t="s">
         <v>55</v>
       </c>
       <c r="M19" s="1">
-        <v>45201</v>
+        <v>45132</v>
       </c>
       <c r="N19" t="s">
         <v>771</v>
@@ -34372,7 +34376,7 @@
         <v>55</v>
       </c>
       <c r="P19" t="s">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -34423,7 +34427,7 @@
         <v>2015</v>
       </c>
       <c r="AG19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH19" t="s">
         <v>57</v>
@@ -34447,30 +34451,30 @@
         <v>830150301360</v>
       </c>
       <c r="AO19">
-        <v>744343</v>
+        <v>768934</v>
       </c>
       <c r="AP19" t="s">
-        <v>681</v>
+        <v>806</v>
       </c>
       <c r="AQ19" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="F20" t="s">
         <v>55</v>
@@ -34482,19 +34486,19 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>235000</v>
+        <v>50000</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20">
-        <v>235000</v>
+        <v>50000</v>
       </c>
       <c r="L20" t="s">
         <v>55</v>
       </c>
       <c r="M20" s="1">
-        <v>45170</v>
+        <v>45153</v>
       </c>
       <c r="N20" t="s">
         <v>777</v>
@@ -34503,7 +34507,7 @@
         <v>55</v>
       </c>
       <c r="P20" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -34572,10 +34576,10 @@
         <v>55</v>
       </c>
       <c r="AM20" t="s">
-        <v>778</v>
+        <v>236</v>
       </c>
       <c r="AO20">
-        <v>554821</v>
+        <v>835178</v>
       </c>
       <c r="AP20" t="s">
         <v>55</v>
@@ -34584,21 +34588,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
       <c r="F21" t="s">
         <v>55</v>
@@ -34610,19 +34614,19 @@
         <v>9</v>
       </c>
       <c r="I21">
-        <v>440000</v>
+        <v>60000</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21">
-        <v>440000</v>
+        <v>60000</v>
       </c>
       <c r="L21" t="s">
         <v>55</v>
       </c>
       <c r="M21" s="1">
-        <v>45152</v>
+        <v>45118</v>
       </c>
       <c r="N21" t="s">
         <v>777</v>
@@ -34631,7 +34635,7 @@
         <v>55</v>
       </c>
       <c r="P21" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -34700,24 +34704,21 @@
         <v>55</v>
       </c>
       <c r="AM21" t="s">
-        <v>236</v>
-      </c>
-      <c r="AN21">
-        <v>830150301420</v>
+        <v>55</v>
       </c>
       <c r="AO21">
-        <v>847324</v>
+        <v>847564</v>
       </c>
       <c r="AP21" t="s">
-        <v>793</v>
+        <v>55</v>
       </c>
       <c r="AQ21" t="s">
-        <v>807</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -34729,31 +34730,31 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>841</v>
+        <v>814</v>
       </c>
       <c r="F22" t="s">
         <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>842</v>
+        <v>776</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I22">
-        <v>675000</v>
+        <v>270000</v>
       </c>
       <c r="J22">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K22">
-        <v>135000</v>
+        <v>270000</v>
       </c>
       <c r="L22" t="s">
         <v>55</v>
       </c>
       <c r="M22" s="1">
-        <v>45187</v>
+        <v>45158</v>
       </c>
       <c r="N22" t="s">
         <v>777</v>
@@ -34762,19 +34763,19 @@
         <v>55</v>
       </c>
       <c r="P22" t="s">
-        <v>55</v>
+        <v>560</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" t="s">
-        <v>772</v>
+        <v>282</v>
       </c>
       <c r="T22" t="s">
-        <v>772</v>
+        <v>282</v>
       </c>
       <c r="U22" t="s">
         <v>57</v>
@@ -34831,30 +34832,33 @@
         <v>55</v>
       </c>
       <c r="AM22" t="s">
-        <v>55</v>
+        <v>778</v>
+      </c>
+      <c r="AO22">
+        <v>427609</v>
       </c>
       <c r="AP22" t="s">
-        <v>789</v>
+        <v>55</v>
       </c>
       <c r="AQ22" t="s">
-        <v>843</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>846</v>
+        <v>820</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>847</v>
+        <v>821</v>
       </c>
       <c r="F23" t="s">
         <v>55</v>
@@ -34866,19 +34870,19 @@
         <v>9</v>
       </c>
       <c r="I23">
-        <v>120000</v>
+        <v>350000</v>
       </c>
       <c r="J23">
         <v>100</v>
       </c>
       <c r="K23">
-        <v>120000</v>
+        <v>350000</v>
       </c>
       <c r="L23" t="s">
         <v>55</v>
       </c>
       <c r="M23" s="1">
-        <v>45216</v>
+        <v>45206</v>
       </c>
       <c r="N23" t="s">
         <v>777</v>
@@ -34956,36 +34960,33 @@
         <v>55</v>
       </c>
       <c r="AM23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN23">
-        <v>830150301360</v>
+        <v>236</v>
       </c>
       <c r="AO23">
-        <v>525476</v>
+        <v>763546</v>
       </c>
       <c r="AP23" t="s">
-        <v>681</v>
+        <v>55</v>
       </c>
       <c r="AQ23" t="s">
-        <v>823</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>790</v>
+        <v>822</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F24" t="s">
         <v>55</v>
@@ -34997,19 +34998,19 @@
         <v>9</v>
       </c>
       <c r="I24">
-        <v>220000</v>
+        <v>915000</v>
       </c>
       <c r="J24">
         <v>100</v>
       </c>
       <c r="K24">
-        <v>220000</v>
+        <v>915000</v>
       </c>
       <c r="L24" t="s">
         <v>55</v>
       </c>
       <c r="M24" s="1">
-        <v>45128</v>
+        <v>45201</v>
       </c>
       <c r="N24" t="s">
         <v>771</v>
@@ -35018,7 +35019,7 @@
         <v>55</v>
       </c>
       <c r="P24" t="s">
-        <v>246</v>
+        <v>560</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -35069,7 +35070,7 @@
         <v>2015</v>
       </c>
       <c r="AG24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH24" t="s">
         <v>57</v>
@@ -35087,60 +35088,60 @@
         <v>55</v>
       </c>
       <c r="AM24" t="s">
-        <v>55</v>
+        <v>236</v>
       </c>
       <c r="AN24">
-        <v>830150301420</v>
+        <v>830150301360</v>
       </c>
       <c r="AO24">
-        <v>653276</v>
+        <v>744343</v>
       </c>
       <c r="AP24" t="s">
-        <v>792</v>
+        <v>681</v>
       </c>
       <c r="AQ24" t="s">
-        <v>793</v>
+        <v>823</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>811</v>
+        <v>829</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
       <c r="F25" t="s">
         <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>800</v>
+        <v>776</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I25">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="J25">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K25">
-        <v>40000</v>
+        <v>90000</v>
       </c>
       <c r="L25" t="s">
         <v>55</v>
       </c>
       <c r="M25" s="1">
-        <v>45126</v>
+        <v>45136</v>
       </c>
       <c r="N25" t="s">
         <v>777</v>
@@ -35149,19 +35150,19 @@
         <v>55</v>
       </c>
       <c r="P25" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" t="s">
-        <v>772</v>
+        <v>282</v>
       </c>
       <c r="T25" t="s">
-        <v>772</v>
+        <v>282</v>
       </c>
       <c r="U25" t="s">
         <v>57</v>
@@ -35218,75 +35219,78 @@
         <v>55</v>
       </c>
       <c r="AM25" t="s">
-        <v>788</v>
+        <v>778</v>
+      </c>
+      <c r="AO25">
+        <v>654985</v>
       </c>
       <c r="AP25" t="s">
-        <v>793</v>
+        <v>55</v>
       </c>
       <c r="AQ25" t="s">
-        <v>773</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="F26" t="s">
         <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>828</v>
+        <v>776</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I26">
-        <v>120000</v>
+        <v>235000</v>
       </c>
       <c r="J26">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K26">
-        <v>84000</v>
+        <v>235000</v>
       </c>
       <c r="L26" t="s">
         <v>55</v>
       </c>
       <c r="M26" s="1">
-        <v>45127</v>
+        <v>45168</v>
       </c>
       <c r="N26" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="O26" t="s">
         <v>55</v>
       </c>
       <c r="P26" t="s">
-        <v>485</v>
+        <v>296</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="s">
-        <v>772</v>
+        <v>282</v>
       </c>
       <c r="T26" t="s">
-        <v>772</v>
+        <v>282</v>
       </c>
       <c r="U26" t="s">
         <v>57</v>
@@ -35343,30 +35347,36 @@
         <v>55</v>
       </c>
       <c r="AM26" t="s">
-        <v>778</v>
+        <v>788</v>
+      </c>
+      <c r="AN26">
+        <v>830150301360</v>
+      </c>
+      <c r="AO26">
+        <v>645612</v>
       </c>
       <c r="AP26" t="s">
-        <v>55</v>
+        <v>681</v>
       </c>
       <c r="AQ26" t="s">
-        <v>55</v>
+        <v>681</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>804</v>
+        <v>833</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="F27" t="s">
         <v>55</v>
@@ -35378,28 +35388,28 @@
         <v>9</v>
       </c>
       <c r="I27">
-        <v>50000</v>
+        <v>235000</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27">
-        <v>50000</v>
+        <v>235000</v>
       </c>
       <c r="L27" t="s">
         <v>55</v>
       </c>
       <c r="M27" s="1">
-        <v>45132</v>
+        <v>45170</v>
       </c>
       <c r="N27" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="O27" t="s">
         <v>55</v>
       </c>
       <c r="P27" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -35468,60 +35478,57 @@
         <v>55</v>
       </c>
       <c r="AM27" t="s">
-        <v>236</v>
-      </c>
-      <c r="AN27">
-        <v>830150301360</v>
+        <v>778</v>
       </c>
       <c r="AO27">
-        <v>768934</v>
+        <v>554821</v>
       </c>
       <c r="AP27" t="s">
-        <v>806</v>
+        <v>55</v>
       </c>
       <c r="AQ27" t="s">
-        <v>807</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="F28" t="s">
         <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I28">
-        <v>100000</v>
+        <v>440000</v>
       </c>
       <c r="J28">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K28">
-        <v>75000</v>
+        <v>440000</v>
       </c>
       <c r="L28" t="s">
         <v>55</v>
       </c>
       <c r="M28" s="1">
-        <v>45129</v>
+        <v>45152</v>
       </c>
       <c r="N28" t="s">
         <v>777</v>
@@ -35530,19 +35537,19 @@
         <v>55</v>
       </c>
       <c r="P28" t="s">
-        <v>801</v>
+        <v>485</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" t="s">
-        <v>772</v>
+        <v>282</v>
       </c>
       <c r="T28" t="s">
-        <v>772</v>
+        <v>282</v>
       </c>
       <c r="U28" t="s">
         <v>57</v>
@@ -35599,30 +35606,36 @@
         <v>55</v>
       </c>
       <c r="AM28" t="s">
-        <v>788</v>
+        <v>236</v>
+      </c>
+      <c r="AN28">
+        <v>830150301420</v>
+      </c>
+      <c r="AO28">
+        <v>847324</v>
       </c>
       <c r="AP28" t="s">
-        <v>55</v>
+        <v>793</v>
       </c>
       <c r="AQ28" t="s">
-        <v>55</v>
+        <v>807</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="F29" t="s">
         <v>55</v>
@@ -35646,7 +35659,7 @@
         <v>55</v>
       </c>
       <c r="M29" s="1">
-        <v>45136</v>
+        <v>45125</v>
       </c>
       <c r="N29" t="s">
         <v>777</v>
@@ -35655,7 +35668,7 @@
         <v>55</v>
       </c>
       <c r="P29" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -35727,7 +35740,7 @@
         <v>778</v>
       </c>
       <c r="AO29">
-        <v>654985</v>
+        <v>254676</v>
       </c>
       <c r="AP29" t="s">
         <v>55</v>
@@ -35736,21 +35749,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>783</v>
+        <v>838</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>784</v>
+        <v>839</v>
       </c>
       <c r="F30" t="s">
         <v>55</v>
@@ -35762,19 +35775,19 @@
         <v>9</v>
       </c>
       <c r="I30">
-        <v>85000</v>
+        <v>210000</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30">
-        <v>85000</v>
+        <v>210000</v>
       </c>
       <c r="L30" t="s">
         <v>55</v>
       </c>
       <c r="M30" s="1">
-        <v>45166</v>
+        <v>45204</v>
       </c>
       <c r="N30" t="s">
         <v>771</v>
@@ -35783,7 +35796,7 @@
         <v>55</v>
       </c>
       <c r="P30" t="s">
-        <v>560</v>
+        <v>485</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -35834,7 +35847,7 @@
         <v>2015</v>
       </c>
       <c r="AG30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH30" t="s">
         <v>57</v>
@@ -35855,78 +35868,78 @@
         <v>236</v>
       </c>
       <c r="AN30">
-        <v>830150301420</v>
+        <v>830150301360</v>
       </c>
       <c r="AO30">
-        <v>908676</v>
+        <v>387624</v>
       </c>
       <c r="AP30" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
       <c r="AQ30" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F31" t="s">
         <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I31">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="J31">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K31">
-        <v>36000</v>
+        <v>120000</v>
       </c>
       <c r="L31" t="s">
         <v>55</v>
       </c>
       <c r="M31" s="1">
-        <v>45217</v>
+        <v>45216</v>
       </c>
       <c r="N31" t="s">
-        <v>55</v>
+        <v>777</v>
       </c>
       <c r="O31" t="s">
         <v>55</v>
       </c>
       <c r="P31" t="s">
-        <v>55</v>
+        <v>485</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" t="s">
-        <v>772</v>
+        <v>282</v>
       </c>
       <c r="T31" t="s">
-        <v>772</v>
+        <v>282</v>
       </c>
       <c r="U31" t="s">
         <v>57</v>
@@ -35983,16 +35996,22 @@
         <v>55</v>
       </c>
       <c r="AM31" t="s">
-        <v>788</v>
+        <v>55</v>
+      </c>
+      <c r="AN31">
+        <v>830150301360</v>
+      </c>
+      <c r="AO31">
+        <v>525476</v>
       </c>
       <c r="AP31" t="s">
-        <v>850</v>
+        <v>681</v>
       </c>
       <c r="AQ31" t="s">
-        <v>792</v>
+        <v>823</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>851</v>
       </c>
@@ -36136,53 +36155,53 @@
       <selection activeCell="AQ1" sqref="AQ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="23" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="31.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>202</v>
       </c>
@@ -36313,7 +36332,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>233</v>
       </c>
@@ -36444,7 +36463,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>237</v>
       </c>
@@ -36572,7 +36591,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>241</v>
       </c>
@@ -36703,7 +36722,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>244</v>
       </c>
@@ -36843,30 +36862,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359B78DB-C88D-4808-8D79-97431B05E8C5}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1043</v>
       </c>
@@ -36922,7 +36941,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1069</v>
       </c>
@@ -36978,7 +36997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1075</v>
       </c>
@@ -37034,7 +37053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1052</v>
       </c>
@@ -37090,7 +37109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1064</v>
       </c>
@@ -37146,7 +37165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1056</v>
       </c>
@@ -37202,7 +37221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1077</v>
       </c>
@@ -37258,7 +37277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1072</v>
       </c>
@@ -37314,7 +37333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1059</v>
       </c>
@@ -37370,7 +37389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1061</v>
       </c>
@@ -37426,7 +37445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1067</v>
       </c>
